--- a/obfuscated/Offenses_P.xlsx
+++ b/obfuscated/Offenses_P.xlsx
@@ -681,46 +681,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>652.74</v>
+        <v>649.12</v>
       </c>
       <c r="D7" t="n">
-        <v>13480.15</v>
+        <v>15217.7</v>
       </c>
       <c r="E7" t="n">
-        <v>531.04</v>
+        <v>734.84</v>
       </c>
       <c r="F7" t="n">
-        <v>259.37</v>
+        <v>320.1</v>
       </c>
       <c r="G7" t="n">
-        <v>17499.32</v>
+        <v>15449.63</v>
       </c>
       <c r="H7" t="n">
-        <v>9397.860000000001</v>
+        <v>7363.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7047.53</v>
+        <v>6745.84</v>
       </c>
       <c r="J7" t="n">
-        <v>752336.22</v>
+        <v>964219.15</v>
       </c>
       <c r="K7" t="n">
-        <v>15796.94</v>
+        <v>14859.17</v>
       </c>
       <c r="L7" t="n">
-        <v>4945.1</v>
+        <v>4611.7</v>
       </c>
       <c r="M7" t="n">
-        <v>240446.99</v>
+        <v>203520</v>
       </c>
       <c r="N7" t="n">
-        <v>6253.49</v>
+        <v>5523.8</v>
       </c>
       <c r="O7" t="n">
-        <v>86982.94</v>
+        <v>95538.99000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>117.51</v>
+        <v>111.73</v>
       </c>
     </row>
     <row r="8">
@@ -738,43 +738,43 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>341.08</v>
+        <v>295.11</v>
       </c>
       <c r="E8" t="n">
-        <v>4.08</v>
+        <v>5.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>102</v>
+        <v>130.39</v>
       </c>
       <c r="H8" t="n">
-        <v>74.53</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>17.42</v>
+        <v>15.61</v>
       </c>
       <c r="J8" t="n">
-        <v>12226.13</v>
+        <v>17006.92</v>
       </c>
       <c r="K8" t="n">
-        <v>157.06</v>
+        <v>157.44</v>
       </c>
       <c r="L8" t="n">
-        <v>100.06</v>
+        <v>92.28</v>
       </c>
       <c r="M8" t="n">
-        <v>2063.52</v>
+        <v>2218.97</v>
       </c>
       <c r="N8" t="n">
-        <v>89.55</v>
+        <v>108.53</v>
       </c>
       <c r="O8" t="n">
-        <v>1608.94</v>
+        <v>1206.99</v>
       </c>
       <c r="P8" t="n">
-        <v>110.83</v>
+        <v>117.58</v>
       </c>
     </row>
     <row r="9">
@@ -792,43 +792,43 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.15</v>
+        <v>5.66</v>
       </c>
       <c r="E9" t="n">
-        <v>2.6</v>
+        <v>3.49</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.06</v>
+        <v>13.99</v>
       </c>
       <c r="H9" t="n">
-        <v>48.82</v>
+        <v>46.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.58</v>
+        <v>2.97</v>
       </c>
       <c r="J9" t="n">
-        <v>1618.58</v>
+        <v>1925.9</v>
       </c>
       <c r="K9" t="n">
-        <v>27.98</v>
+        <v>20.82</v>
       </c>
       <c r="L9" t="n">
-        <v>16.17</v>
+        <v>18.16</v>
       </c>
       <c r="M9" t="n">
-        <v>328.03</v>
+        <v>275.76</v>
       </c>
       <c r="N9" t="n">
-        <v>10.88</v>
+        <v>12.32</v>
       </c>
       <c r="O9" t="n">
-        <v>499.84</v>
+        <v>416.52</v>
       </c>
       <c r="P9" t="n">
-        <v>99.19</v>
+        <v>113.13</v>
       </c>
     </row>
     <row r="10">
@@ -843,46 +843,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.09</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>588.14</v>
+        <v>546.77</v>
       </c>
       <c r="E10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="G10" t="n">
-        <v>596.33</v>
+        <v>679.8</v>
       </c>
       <c r="H10" t="n">
-        <v>101.51</v>
+        <v>117.64</v>
       </c>
       <c r="I10" t="n">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
       <c r="J10" t="n">
-        <v>15486.67</v>
+        <v>20230.32</v>
       </c>
       <c r="K10" t="n">
-        <v>172</v>
+        <v>161.54</v>
       </c>
       <c r="L10" t="n">
-        <v>102.59</v>
+        <v>110.15</v>
       </c>
       <c r="M10" t="n">
-        <v>6126.12</v>
+        <v>6195.5</v>
       </c>
       <c r="N10" t="n">
-        <v>87.72</v>
+        <v>59.41</v>
       </c>
       <c r="O10" t="n">
-        <v>2157.78</v>
+        <v>2087.74</v>
       </c>
       <c r="P10" t="n">
-        <v>90.19</v>
+        <v>85.44</v>
       </c>
     </row>
     <row r="11">
@@ -897,46 +897,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15.73</v>
+        <v>21.95</v>
       </c>
       <c r="D11" t="n">
-        <v>69.37</v>
+        <v>56.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>203.49</v>
+        <v>184.06</v>
       </c>
       <c r="H11" t="n">
-        <v>31.15</v>
+        <v>41.03</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6866.47</v>
+        <v>8932.58</v>
       </c>
       <c r="K11" t="n">
-        <v>101.9</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>30.4</v>
+        <v>35.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1013.98</v>
+        <v>900.41</v>
       </c>
       <c r="N11" t="n">
-        <v>37.31</v>
+        <v>48.87</v>
       </c>
       <c r="O11" t="n">
-        <v>1181.82</v>
+        <v>1122.09</v>
       </c>
       <c r="P11" t="n">
-        <v>82.45</v>
+        <v>96.95</v>
       </c>
     </row>
     <row r="12">
@@ -951,46 +951,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>107.35</v>
+        <v>101.31</v>
       </c>
       <c r="D12" t="n">
-        <v>1371.34</v>
+        <v>1464.4</v>
       </c>
       <c r="E12" t="n">
-        <v>139.14</v>
+        <v>130.15</v>
       </c>
       <c r="F12" t="n">
-        <v>81.03</v>
+        <v>85.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2105.07</v>
+        <v>1860.71</v>
       </c>
       <c r="H12" t="n">
-        <v>2606.35</v>
+        <v>2211.25</v>
       </c>
       <c r="I12" t="n">
-        <v>402.63</v>
+        <v>312.79</v>
       </c>
       <c r="J12" t="n">
-        <v>102136.3</v>
+        <v>87282.22</v>
       </c>
       <c r="K12" t="n">
-        <v>2094.49</v>
+        <v>1471.26</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1799999999999</v>
+        <v>1005.23</v>
       </c>
       <c r="M12" t="n">
-        <v>52331.94</v>
+        <v>44569.93</v>
       </c>
       <c r="N12" t="n">
-        <v>1823.25</v>
+        <v>2008.43</v>
       </c>
       <c r="O12" t="n">
-        <v>10748.22</v>
+        <v>9707.139999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>95.23999999999999</v>
+        <v>103.86</v>
       </c>
     </row>
     <row r="13">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.02</v>
+        <v>2.68</v>
       </c>
       <c r="D13" t="n">
-        <v>65.06999999999999</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.11</v>
+        <v>128.69</v>
       </c>
       <c r="H13" t="n">
-        <v>54.61</v>
+        <v>42.08</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8083.19</v>
+        <v>9060.49</v>
       </c>
       <c r="K13" t="n">
-        <v>121.57</v>
+        <v>108.85</v>
       </c>
       <c r="L13" t="n">
-        <v>8.619999999999999</v>
+        <v>10.26</v>
       </c>
       <c r="M13" t="n">
-        <v>868.15</v>
+        <v>1191.86</v>
       </c>
       <c r="N13" t="n">
-        <v>33.71</v>
+        <v>41.93</v>
       </c>
       <c r="O13" t="n">
-        <v>2114.97</v>
+        <v>1667.02</v>
       </c>
       <c r="P13" t="n">
-        <v>95.38</v>
+        <v>90.84999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1059,46 +1059,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="D14" t="n">
-        <v>141.92</v>
+        <v>180.09</v>
       </c>
       <c r="E14" t="n">
-        <v>8.59</v>
+        <v>9.17</v>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>86.36</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>178.91</v>
+        <v>202.57</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>15489.96</v>
+        <v>14110.5</v>
       </c>
       <c r="K14" t="n">
-        <v>96.84999999999999</v>
+        <v>118.57</v>
       </c>
       <c r="L14" t="n">
-        <v>25.11</v>
+        <v>21.76</v>
       </c>
       <c r="M14" t="n">
-        <v>1812.63</v>
+        <v>1834.26</v>
       </c>
       <c r="N14" t="n">
-        <v>48.02</v>
+        <v>49.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1389.88</v>
+        <v>1075.6</v>
       </c>
       <c r="P14" t="n">
-        <v>89.09</v>
+        <v>106.98</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.17</v>
+        <v>5.23</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.7</v>
+        <v>6.42</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>649.4</v>
+        <v>852.71</v>
       </c>
       <c r="K15" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>524.29</v>
+        <v>559.0599999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="O15" t="n">
-        <v>213.68</v>
+        <v>214.58</v>
       </c>
       <c r="P15" t="n">
-        <v>119.78</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="16">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.9</v>
+        <v>10.57</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.57</v>
+        <v>22.16</v>
       </c>
       <c r="H16" t="n">
-        <v>17.55</v>
+        <v>16.28</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5262.86</v>
+        <v>3702.02</v>
       </c>
       <c r="K16" t="n">
-        <v>40.46</v>
+        <v>32.42</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.93</v>
+        <v>1163.95</v>
       </c>
       <c r="N16" t="n">
-        <v>15.17</v>
+        <v>15.41</v>
       </c>
       <c r="O16" t="n">
-        <v>219.2</v>
+        <v>264.07</v>
       </c>
       <c r="P16" t="n">
-        <v>101.99</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="17">
@@ -1221,46 +1221,46 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32.48</v>
+        <v>34.94</v>
       </c>
       <c r="D17" t="n">
-        <v>49.62</v>
+        <v>54.9</v>
       </c>
       <c r="E17" t="n">
-        <v>7.73</v>
+        <v>6.51</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>94.27</v>
+        <v>94.17</v>
       </c>
       <c r="H17" t="n">
-        <v>5.04</v>
+        <v>6.11</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7730.05</v>
+        <v>7246.59</v>
       </c>
       <c r="K17" t="n">
-        <v>71.78</v>
+        <v>103.86</v>
       </c>
       <c r="L17" t="n">
-        <v>21.97</v>
+        <v>21.91</v>
       </c>
       <c r="M17" t="n">
-        <v>4451.22</v>
+        <v>4639.59</v>
       </c>
       <c r="N17" t="n">
-        <v>126.02</v>
+        <v>117.83</v>
       </c>
       <c r="O17" t="n">
-        <v>3326.67</v>
+        <v>3233.97</v>
       </c>
       <c r="P17" t="n">
-        <v>105.01</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="18">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>42.04</v>
       </c>
       <c r="D18" t="n">
-        <v>1664.93</v>
+        <v>2110.36</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>108.85</v>
+        <v>105.64</v>
       </c>
       <c r="H18" t="n">
-        <v>45.63</v>
+        <v>34.76</v>
       </c>
       <c r="I18" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J18" t="n">
-        <v>43105.72</v>
+        <v>58105.62</v>
       </c>
       <c r="K18" t="n">
-        <v>81.23999999999999</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>29.98</v>
+        <v>32.16</v>
       </c>
       <c r="M18" t="n">
-        <v>12036.28</v>
+        <v>9311.27</v>
       </c>
       <c r="N18" t="n">
-        <v>165.77</v>
+        <v>200.25</v>
       </c>
       <c r="O18" t="n">
-        <v>2197.57</v>
+        <v>2770.62</v>
       </c>
       <c r="P18" t="n">
-        <v>100.93</v>
+        <v>105.19</v>
       </c>
     </row>
     <row r="19">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.4</v>
+        <v>4.19</v>
       </c>
       <c r="D19" t="n">
-        <v>155.46</v>
+        <v>163.95</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.57</v>
+        <v>12.94</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.62</v>
+        <v>10.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="M19" t="n">
-        <v>399.09</v>
+        <v>550.91</v>
       </c>
       <c r="N19" t="n">
-        <v>3.83</v>
+        <v>4.65</v>
       </c>
       <c r="O19" t="n">
-        <v>335.51</v>
+        <v>295.39</v>
       </c>
       <c r="P19" t="n">
-        <v>89.45</v>
+        <v>101.28</v>
       </c>
     </row>
     <row r="20">
@@ -1383,46 +1383,46 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.32</v>
+        <v>8.85</v>
       </c>
       <c r="D20" t="n">
-        <v>50.8</v>
+        <v>40.65</v>
       </c>
       <c r="E20" t="n">
-        <v>5.37</v>
+        <v>4.52</v>
       </c>
       <c r="F20" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="G20" t="n">
-        <v>153.74</v>
+        <v>142.31</v>
       </c>
       <c r="H20" t="n">
-        <v>31.42</v>
+        <v>36.27</v>
       </c>
       <c r="I20" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="J20" t="n">
-        <v>2178.04</v>
+        <v>2008.01</v>
       </c>
       <c r="K20" t="n">
-        <v>45.1</v>
+        <v>44.84</v>
       </c>
       <c r="L20" t="n">
-        <v>23.93</v>
+        <v>32.35</v>
       </c>
       <c r="M20" t="n">
-        <v>738.87</v>
+        <v>805.53</v>
       </c>
       <c r="N20" t="n">
-        <v>22.95</v>
+        <v>26.82</v>
       </c>
       <c r="O20" t="n">
-        <v>594.8099999999999</v>
+        <v>788.7</v>
       </c>
       <c r="P20" t="n">
-        <v>99.15000000000001</v>
+        <v>97.01000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.87</v>
+        <v>32.25</v>
       </c>
       <c r="D21" t="n">
-        <v>679.46</v>
+        <v>747.39</v>
       </c>
       <c r="E21" t="n">
-        <v>12.85</v>
+        <v>9.73</v>
       </c>
       <c r="F21" t="n">
-        <v>19.36</v>
+        <v>15.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1111.28</v>
+        <v>1118.22</v>
       </c>
       <c r="H21" t="n">
-        <v>503.21</v>
+        <v>348.99</v>
       </c>
       <c r="I21" t="n">
-        <v>7044.36</v>
+        <v>5391.77</v>
       </c>
       <c r="J21" t="n">
-        <v>31326.35</v>
+        <v>28550.06</v>
       </c>
       <c r="K21" t="n">
-        <v>507.94</v>
+        <v>384.13</v>
       </c>
       <c r="L21" t="n">
-        <v>449.82</v>
+        <v>357.42</v>
       </c>
       <c r="M21" t="n">
-        <v>6585.62</v>
+        <v>6459.24</v>
       </c>
       <c r="N21" t="n">
-        <v>306.52</v>
+        <v>328.52</v>
       </c>
       <c r="O21" t="n">
-        <v>4120.57</v>
+        <v>4284.48</v>
       </c>
       <c r="P21" t="n">
-        <v>103.68</v>
+        <v>99.62</v>
       </c>
     </row>
     <row r="22">
@@ -1491,46 +1491,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.48</v>
+        <v>10.95</v>
       </c>
       <c r="D22" t="n">
-        <v>497.47</v>
+        <v>416.97</v>
       </c>
       <c r="E22" t="n">
-        <v>105.91</v>
+        <v>135.27</v>
       </c>
       <c r="F22" t="n">
-        <v>24.1</v>
+        <v>30.84</v>
       </c>
       <c r="G22" t="n">
-        <v>554.9299999999999</v>
+        <v>573.54</v>
       </c>
       <c r="H22" t="n">
-        <v>320.89</v>
+        <v>406.43</v>
       </c>
       <c r="I22" t="n">
-        <v>43.2</v>
+        <v>42.98</v>
       </c>
       <c r="J22" t="n">
-        <v>20006.42</v>
+        <v>15380.14</v>
       </c>
       <c r="K22" t="n">
-        <v>276.39</v>
+        <v>294.15</v>
       </c>
       <c r="L22" t="n">
-        <v>257.35</v>
+        <v>241.84</v>
       </c>
       <c r="M22" t="n">
-        <v>3268.47</v>
+        <v>3461.44</v>
       </c>
       <c r="N22" t="n">
-        <v>144.1</v>
+        <v>122.46</v>
       </c>
       <c r="O22" t="n">
-        <v>1929.98</v>
+        <v>1689.32</v>
       </c>
       <c r="P22" t="n">
-        <v>98.62</v>
+        <v>95.33</v>
       </c>
     </row>
     <row r="23">
@@ -1545,46 +1545,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="D23" t="n">
-        <v>19.24</v>
+        <v>19.29</v>
       </c>
       <c r="E23" t="n">
-        <v>10.57</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>179.68</v>
+        <v>171.02</v>
       </c>
       <c r="H23" t="n">
-        <v>186.08</v>
+        <v>192.15</v>
       </c>
       <c r="I23" t="n">
-        <v>18.01</v>
+        <v>22.22</v>
       </c>
       <c r="J23" t="n">
-        <v>13801.24</v>
+        <v>11810.86</v>
       </c>
       <c r="K23" t="n">
-        <v>142.18</v>
+        <v>140.9</v>
       </c>
       <c r="L23" t="n">
-        <v>41.93</v>
+        <v>58.87</v>
       </c>
       <c r="M23" t="n">
-        <v>1347.15</v>
+        <v>1298.34</v>
       </c>
       <c r="N23" t="n">
-        <v>200.05</v>
+        <v>209.57</v>
       </c>
       <c r="O23" t="n">
-        <v>1118.44</v>
+        <v>1599.73</v>
       </c>
       <c r="P23" t="n">
-        <v>81.86</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="24">
@@ -1599,46 +1599,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.89</v>
+        <v>25.65</v>
       </c>
       <c r="D24" t="n">
-        <v>74.27</v>
+        <v>65.62</v>
       </c>
       <c r="E24" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="G24" t="n">
-        <v>107.37</v>
+        <v>75.33</v>
       </c>
       <c r="H24" t="n">
-        <v>104.5</v>
+        <v>101.92</v>
       </c>
       <c r="I24" t="n">
-        <v>15.69</v>
+        <v>16.69</v>
       </c>
       <c r="J24" t="n">
-        <v>11484.48</v>
+        <v>10599.27</v>
       </c>
       <c r="K24" t="n">
-        <v>72.23</v>
+        <v>76.53</v>
       </c>
       <c r="L24" t="n">
-        <v>34.03</v>
+        <v>44.97</v>
       </c>
       <c r="M24" t="n">
-        <v>3209.99</v>
+        <v>3985.71</v>
       </c>
       <c r="N24" t="n">
-        <v>31.34</v>
+        <v>40.39</v>
       </c>
       <c r="O24" t="n">
-        <v>1318.64</v>
+        <v>1580.44</v>
       </c>
       <c r="P24" t="n">
-        <v>105.86</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="25">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="D25" t="n">
-        <v>50.46</v>
+        <v>49.36</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1665,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.47</v>
+        <v>36.75</v>
       </c>
       <c r="H25" t="n">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26708.94</v>
+        <v>22957.51</v>
       </c>
       <c r="K25" t="n">
-        <v>23.53</v>
+        <v>23.21</v>
       </c>
       <c r="L25" t="n">
-        <v>197.9</v>
+        <v>205.65</v>
       </c>
       <c r="M25" t="n">
-        <v>527.38</v>
+        <v>412.65</v>
       </c>
       <c r="N25" t="n">
-        <v>147.63</v>
+        <v>143.99</v>
       </c>
       <c r="O25" t="n">
-        <v>1179.83</v>
+        <v>1299.73</v>
       </c>
       <c r="P25" t="n">
-        <v>119.44</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="26">
@@ -1710,43 +1710,43 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>51.1</v>
+        <v>58.15</v>
       </c>
       <c r="E26" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="G26" t="n">
-        <v>154</v>
+        <v>199.82</v>
       </c>
       <c r="H26" t="n">
-        <v>78.29000000000001</v>
+        <v>67.52</v>
       </c>
       <c r="I26" t="n">
-        <v>3.58</v>
+        <v>2.57</v>
       </c>
       <c r="J26" t="n">
-        <v>46091.76</v>
+        <v>35837.9</v>
       </c>
       <c r="K26" t="n">
-        <v>57.36</v>
+        <v>43.75</v>
       </c>
       <c r="L26" t="n">
-        <v>15.76</v>
+        <v>13.38</v>
       </c>
       <c r="M26" t="n">
-        <v>7218.47</v>
+        <v>7678.79</v>
       </c>
       <c r="N26" t="n">
-        <v>151</v>
+        <v>153.76</v>
       </c>
       <c r="O26" t="n">
-        <v>1129.84</v>
+        <v>1480.36</v>
       </c>
       <c r="P26" t="n">
-        <v>116.21</v>
+        <v>109.68</v>
       </c>
     </row>
     <row r="27">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>17.72</v>
+        <v>17.63</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1773,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>42.38</v>
+        <v>37.38</v>
       </c>
       <c r="H27" t="n">
-        <v>26.28</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="J27" t="n">
-        <v>1850.19</v>
+        <v>1605.59</v>
       </c>
       <c r="K27" t="n">
-        <v>43.8</v>
+        <v>43.68</v>
       </c>
       <c r="L27" t="n">
-        <v>39.92</v>
+        <v>42.44</v>
       </c>
       <c r="M27" t="n">
-        <v>454.2</v>
+        <v>399.81</v>
       </c>
       <c r="N27" t="n">
-        <v>11.16</v>
+        <v>8.93</v>
       </c>
       <c r="O27" t="n">
-        <v>614.13</v>
+        <v>549.5599999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>108.69</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="28">
@@ -1815,46 +1815,46 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.61</v>
+        <v>7.26</v>
       </c>
       <c r="D28" t="n">
-        <v>566.89</v>
+        <v>658.46</v>
       </c>
       <c r="E28" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="F28" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="G28" t="n">
-        <v>663.63</v>
+        <v>682.6799999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>119.43</v>
+        <v>174.19</v>
       </c>
       <c r="I28" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="J28" t="n">
-        <v>25480.17</v>
+        <v>24852.7</v>
       </c>
       <c r="K28" t="n">
-        <v>159.89</v>
+        <v>135.92</v>
       </c>
       <c r="L28" t="n">
-        <v>84.34999999999999</v>
+        <v>73.87</v>
       </c>
       <c r="M28" t="n">
-        <v>4536.93</v>
+        <v>5645.72</v>
       </c>
       <c r="N28" t="n">
-        <v>52.01</v>
+        <v>62.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1658.58</v>
+        <v>1174.21</v>
       </c>
       <c r="P28" t="n">
-        <v>77.34999999999999</v>
+        <v>78.39</v>
       </c>
     </row>
     <row r="29">
@@ -1869,46 +1869,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>43.24</v>
+        <v>39.59</v>
       </c>
       <c r="D29" t="n">
-        <v>190.56</v>
+        <v>179.35</v>
       </c>
       <c r="E29" t="n">
-        <v>3.43</v>
+        <v>4.39</v>
       </c>
       <c r="F29" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="G29" t="n">
-        <v>433.63</v>
+        <v>338.95</v>
       </c>
       <c r="H29" t="n">
-        <v>300.48</v>
+        <v>257.39</v>
       </c>
       <c r="I29" t="n">
-        <v>7.41</v>
+        <v>7.56</v>
       </c>
       <c r="J29" t="n">
-        <v>14727.34</v>
+        <v>11155.27</v>
       </c>
       <c r="K29" t="n">
-        <v>143.09</v>
+        <v>145.42</v>
       </c>
       <c r="L29" t="n">
-        <v>71.81999999999999</v>
+        <v>55.63</v>
       </c>
       <c r="M29" t="n">
-        <v>3786.66</v>
+        <v>4777.8</v>
       </c>
       <c r="N29" t="n">
-        <v>61.51</v>
+        <v>55.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1545.44</v>
+        <v>2137.24</v>
       </c>
       <c r="P29" t="n">
-        <v>105.4</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="30">
@@ -1923,46 +1923,46 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19.37</v>
+        <v>21.55</v>
       </c>
       <c r="D30" t="n">
-        <v>234.3</v>
+        <v>287.64</v>
       </c>
       <c r="E30" t="n">
-        <v>99.09</v>
+        <v>101.27</v>
       </c>
       <c r="F30" t="n">
-        <v>23.11</v>
+        <v>21.22</v>
       </c>
       <c r="G30" t="n">
-        <v>738.0599999999999</v>
+        <v>659.16</v>
       </c>
       <c r="H30" t="n">
-        <v>550.6900000000001</v>
+        <v>529.86</v>
       </c>
       <c r="I30" t="n">
-        <v>352.01</v>
+        <v>333.61</v>
       </c>
       <c r="J30" t="n">
-        <v>29759.43</v>
+        <v>37564.54</v>
       </c>
       <c r="K30" t="n">
-        <v>354.21</v>
+        <v>407.16</v>
       </c>
       <c r="L30" t="n">
-        <v>183.95</v>
+        <v>191.69</v>
       </c>
       <c r="M30" t="n">
-        <v>4589.82</v>
+        <v>5781.49</v>
       </c>
       <c r="N30" t="n">
-        <v>110.94</v>
+        <v>104</v>
       </c>
       <c r="O30" t="n">
-        <v>3007.75</v>
+        <v>4192.89</v>
       </c>
       <c r="P30" t="n">
-        <v>107.85</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="31">
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="D31" t="n">
-        <v>200.87</v>
+        <v>200.01</v>
       </c>
       <c r="E31" t="n">
-        <v>4.03</v>
+        <v>4.56</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>469.34</v>
+        <v>370.37</v>
       </c>
       <c r="H31" t="n">
-        <v>237.86</v>
+        <v>194.4</v>
       </c>
       <c r="I31" t="n">
-        <v>9.27</v>
+        <v>8.99</v>
       </c>
       <c r="J31" t="n">
-        <v>21680.38</v>
+        <v>16051.71</v>
       </c>
       <c r="K31" t="n">
-        <v>260.75</v>
+        <v>277.74</v>
       </c>
       <c r="L31" t="n">
-        <v>83.58</v>
+        <v>81.25</v>
       </c>
       <c r="M31" t="n">
-        <v>4001.08</v>
+        <v>4980.72</v>
       </c>
       <c r="N31" t="n">
-        <v>85.02</v>
+        <v>75.53</v>
       </c>
       <c r="O31" t="n">
-        <v>2323.07</v>
+        <v>1935.43</v>
       </c>
       <c r="P31" t="n">
-        <v>93.23999999999999</v>
+        <v>89.33</v>
       </c>
     </row>
     <row r="32">
@@ -2031,46 +2031,46 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.87</v>
+        <v>1.15</v>
       </c>
       <c r="D32" t="n">
-        <v>28.63</v>
+        <v>27.46</v>
       </c>
       <c r="E32" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>93.59999999999999</v>
+        <v>95.88</v>
       </c>
       <c r="H32" t="n">
-        <v>18.29</v>
+        <v>20.99</v>
       </c>
       <c r="I32" t="n">
-        <v>12.87</v>
+        <v>8.82</v>
       </c>
       <c r="J32" t="n">
-        <v>8012.47</v>
+        <v>8277.98</v>
       </c>
       <c r="K32" t="n">
-        <v>77.03</v>
+        <v>59.6</v>
       </c>
       <c r="L32" t="n">
-        <v>20.27</v>
+        <v>22.29</v>
       </c>
       <c r="M32" t="n">
-        <v>802.58</v>
+        <v>1067.52</v>
       </c>
       <c r="N32" t="n">
-        <v>112</v>
+        <v>121.81</v>
       </c>
       <c r="O32" t="n">
-        <v>980.9400000000001</v>
+        <v>874.52</v>
       </c>
       <c r="P32" t="n">
-        <v>89.09</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="33">
@@ -2085,46 +2085,46 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>64.76000000000001</v>
+        <v>53.38</v>
       </c>
       <c r="D33" t="n">
-        <v>436.6</v>
+        <v>481.28</v>
       </c>
       <c r="E33" t="n">
-        <v>52.98</v>
+        <v>47.5</v>
       </c>
       <c r="F33" t="n">
-        <v>23.41</v>
+        <v>26.66</v>
       </c>
       <c r="G33" t="n">
-        <v>808.29</v>
+        <v>840.73</v>
       </c>
       <c r="H33" t="n">
-        <v>360.23</v>
+        <v>395.81</v>
       </c>
       <c r="I33" t="n">
-        <v>49.29</v>
+        <v>65.22</v>
       </c>
       <c r="J33" t="n">
-        <v>26509.27</v>
+        <v>24561.93</v>
       </c>
       <c r="K33" t="n">
-        <v>445.87</v>
+        <v>534.9</v>
       </c>
       <c r="L33" t="n">
-        <v>504.92</v>
+        <v>500.49</v>
       </c>
       <c r="M33" t="n">
-        <v>4271.11</v>
+        <v>4430.23</v>
       </c>
       <c r="N33" t="n">
-        <v>137.87</v>
+        <v>126.68</v>
       </c>
       <c r="O33" t="n">
-        <v>2280.71</v>
+        <v>1920.05</v>
       </c>
       <c r="P33" t="n">
-        <v>109.56</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="34">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="D34" t="n">
-        <v>57.04</v>
+        <v>50.44</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2151,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>48.59</v>
+        <v>42.66</v>
       </c>
       <c r="H34" t="n">
-        <v>59.09</v>
+        <v>44.96</v>
       </c>
       <c r="I34" t="n">
-        <v>16.37</v>
+        <v>17.49</v>
       </c>
       <c r="J34" t="n">
-        <v>1315.63</v>
+        <v>1373.68</v>
       </c>
       <c r="K34" t="n">
-        <v>65.29000000000001</v>
+        <v>62.69</v>
       </c>
       <c r="L34" t="n">
-        <v>34.25</v>
+        <v>34.38</v>
       </c>
       <c r="M34" t="n">
-        <v>250.73</v>
+        <v>226.35</v>
       </c>
       <c r="N34" t="n">
-        <v>12.09</v>
+        <v>11.97</v>
       </c>
       <c r="O34" t="n">
-        <v>791.98</v>
+        <v>747.62</v>
       </c>
       <c r="P34" t="n">
-        <v>78.03</v>
+        <v>94.98999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.81</v>
+        <v>2.35</v>
       </c>
       <c r="D35" t="n">
-        <v>121.38</v>
+        <v>151.57</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>95.31</v>
+        <v>78.11</v>
       </c>
       <c r="H35" t="n">
-        <v>111.57</v>
+        <v>133.83</v>
       </c>
       <c r="I35" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="J35" t="n">
-        <v>12998.7</v>
+        <v>9361.059999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>76.36</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>29.19</v>
+        <v>27.91</v>
       </c>
       <c r="M35" t="n">
-        <v>2608.72</v>
+        <v>2719.97</v>
       </c>
       <c r="N35" t="n">
-        <v>16.95</v>
+        <v>16.94</v>
       </c>
       <c r="O35" t="n">
-        <v>988.03</v>
+        <v>946.75</v>
       </c>
       <c r="P35" t="n">
-        <v>86.97</v>
+        <v>112.12</v>
       </c>
     </row>
     <row r="36">
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>93.37</v>
+        <v>99.17</v>
       </c>
       <c r="E36" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="F36" t="n">
-        <v>29.61</v>
+        <v>22.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1344.48</v>
+        <v>1525.41</v>
       </c>
       <c r="H36" t="n">
-        <v>15.31</v>
+        <v>15.82</v>
       </c>
       <c r="I36" t="n">
-        <v>6.1</v>
+        <v>6.82</v>
       </c>
       <c r="J36" t="n">
-        <v>14368.9</v>
+        <v>13016.32</v>
       </c>
       <c r="K36" t="n">
-        <v>5238.97</v>
+        <v>5329.19</v>
       </c>
       <c r="L36" t="n">
-        <v>151.51</v>
+        <v>165.76</v>
       </c>
       <c r="M36" t="n">
-        <v>4076.86</v>
+        <v>4037.11</v>
       </c>
       <c r="N36" t="n">
-        <v>57.47</v>
+        <v>48.55</v>
       </c>
       <c r="O36" t="n">
-        <v>753.4400000000001</v>
+        <v>687.6799999999999</v>
       </c>
       <c r="P36" t="n">
-        <v>82.31999999999999</v>
+        <v>116.87</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.68</v>
+        <v>18.45</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2313,34 +2313,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.08</v>
+        <v>36.7</v>
       </c>
       <c r="H37" t="n">
-        <v>22.13</v>
+        <v>28.97</v>
       </c>
       <c r="I37" t="n">
-        <v>11.43</v>
+        <v>11.97</v>
       </c>
       <c r="J37" t="n">
-        <v>1533.47</v>
+        <v>1821.42</v>
       </c>
       <c r="K37" t="n">
-        <v>28.82</v>
+        <v>37.83</v>
       </c>
       <c r="L37" t="n">
-        <v>25.88</v>
+        <v>26.42</v>
       </c>
       <c r="M37" t="n">
-        <v>601.64</v>
+        <v>432.16</v>
       </c>
       <c r="N37" t="n">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="O37" t="n">
-        <v>513.54</v>
+        <v>532.64</v>
       </c>
       <c r="P37" t="n">
-        <v>81.61</v>
+        <v>88.84999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="D38" t="n">
-        <v>91.48</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2367,34 +2367,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>195.62</v>
+        <v>207.87</v>
       </c>
       <c r="H38" t="n">
-        <v>97.81</v>
+        <v>99.62</v>
       </c>
       <c r="I38" t="n">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="J38" t="n">
-        <v>7245.64</v>
+        <v>6722.75</v>
       </c>
       <c r="K38" t="n">
-        <v>144.07</v>
+        <v>161.89</v>
       </c>
       <c r="L38" t="n">
-        <v>41.03</v>
+        <v>45.71</v>
       </c>
       <c r="M38" t="n">
-        <v>1351.96</v>
+        <v>1420.4</v>
       </c>
       <c r="N38" t="n">
-        <v>64.5</v>
+        <v>68.38</v>
       </c>
       <c r="O38" t="n">
-        <v>2705.73</v>
+        <v>2620.55</v>
       </c>
       <c r="P38" t="n">
-        <v>85.20999999999999</v>
+        <v>109.84</v>
       </c>
     </row>
     <row r="39">
@@ -2409,46 +2409,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="D39" t="n">
-        <v>141.59</v>
+        <v>174.17</v>
       </c>
       <c r="E39" t="n">
-        <v>10.62</v>
+        <v>10.7</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>95.84999999999999</v>
+        <v>98</v>
       </c>
       <c r="H39" t="n">
-        <v>92.59</v>
+        <v>83.45</v>
       </c>
       <c r="I39" t="n">
-        <v>9.279999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="J39" t="n">
-        <v>11710.51</v>
+        <v>9909.32</v>
       </c>
       <c r="K39" t="n">
-        <v>299.65</v>
+        <v>295</v>
       </c>
       <c r="L39" t="n">
-        <v>29.72</v>
+        <v>25.82</v>
       </c>
       <c r="M39" t="n">
-        <v>1296.89</v>
+        <v>1242.9</v>
       </c>
       <c r="N39" t="n">
-        <v>45.71</v>
+        <v>54.17</v>
       </c>
       <c r="O39" t="n">
-        <v>790.5</v>
+        <v>717.15</v>
       </c>
       <c r="P39" t="n">
-        <v>107.04</v>
+        <v>87.23</v>
       </c>
     </row>
     <row r="40">
@@ -2463,46 +2463,46 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23.43</v>
+        <v>22.12</v>
       </c>
       <c r="D40" t="n">
-        <v>400.95</v>
+        <v>451.29</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="G40" t="n">
-        <v>240.2</v>
+        <v>288.57</v>
       </c>
       <c r="H40" t="n">
-        <v>279.19</v>
+        <v>241.66</v>
       </c>
       <c r="I40" t="n">
-        <v>9.890000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="J40" t="n">
-        <v>15467.55</v>
+        <v>14591.43</v>
       </c>
       <c r="K40" t="n">
-        <v>339.38</v>
+        <v>342.65</v>
       </c>
       <c r="L40" t="n">
-        <v>115.11</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>4365.71</v>
+        <v>4187.03</v>
       </c>
       <c r="N40" t="n">
-        <v>247.59</v>
+        <v>240.58</v>
       </c>
       <c r="O40" t="n">
-        <v>5029.29</v>
+        <v>5357.41</v>
       </c>
       <c r="P40" t="n">
-        <v>87.06999999999999</v>
+        <v>94.84999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2517,46 +2517,46 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>58.12</v>
+        <v>47.23</v>
       </c>
       <c r="D41" t="n">
-        <v>126.95</v>
+        <v>107.8</v>
       </c>
       <c r="E41" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>44.52</v>
+        <v>43.03</v>
       </c>
       <c r="H41" t="n">
-        <v>28.37</v>
+        <v>29.45</v>
       </c>
       <c r="I41" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>50988.52</v>
+        <v>41019.4</v>
       </c>
       <c r="K41" t="n">
-        <v>353.44</v>
+        <v>297.78</v>
       </c>
       <c r="L41" t="n">
-        <v>251.34</v>
+        <v>309.51</v>
       </c>
       <c r="M41" t="n">
-        <v>1217.92</v>
+        <v>1227.29</v>
       </c>
       <c r="N41" t="n">
-        <v>151.26</v>
+        <v>110.69</v>
       </c>
       <c r="O41" t="n">
-        <v>2250.37</v>
+        <v>2656.06</v>
       </c>
       <c r="P41" t="n">
-        <v>99.76000000000001</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="42">
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>8.35</v>
+        <v>7.54</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2583,34 +2583,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>20.01</v>
+        <v>14.08</v>
       </c>
       <c r="H42" t="n">
-        <v>30.71</v>
+        <v>28.07</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>890.9</v>
+        <v>906.74</v>
       </c>
       <c r="K42" t="n">
-        <v>15.12</v>
+        <v>18.28</v>
       </c>
       <c r="L42" t="n">
-        <v>23.87</v>
+        <v>18.1</v>
       </c>
       <c r="M42" t="n">
-        <v>166.35</v>
+        <v>172.41</v>
       </c>
       <c r="N42" t="n">
-        <v>10.71</v>
+        <v>8.5</v>
       </c>
       <c r="O42" t="n">
-        <v>425.74</v>
+        <v>482.09</v>
       </c>
       <c r="P42" t="n">
-        <v>82.04000000000001</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="43">
@@ -2625,46 +2625,46 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.24</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>606.0599999999999</v>
+        <v>719.3</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="n">
-        <v>694.3</v>
+        <v>898.55</v>
       </c>
       <c r="H43" t="n">
-        <v>350.76</v>
+        <v>347.32</v>
       </c>
       <c r="I43" t="n">
-        <v>4.79</v>
+        <v>4.31</v>
       </c>
       <c r="J43" t="n">
-        <v>33448.12</v>
+        <v>38623.87</v>
       </c>
       <c r="K43" t="n">
-        <v>594.78</v>
+        <v>663.6</v>
       </c>
       <c r="L43" t="n">
-        <v>196.9</v>
+        <v>235.18</v>
       </c>
       <c r="M43" t="n">
-        <v>5693.08</v>
+        <v>5225.56</v>
       </c>
       <c r="N43" t="n">
-        <v>185.86</v>
+        <v>204.82</v>
       </c>
       <c r="O43" t="n">
-        <v>3914.73</v>
+        <v>3972.55</v>
       </c>
       <c r="P43" t="n">
-        <v>117.27</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2679,46 +2679,46 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9.710000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="D44" t="n">
-        <v>170.89</v>
+        <v>176.46</v>
       </c>
       <c r="E44" t="n">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="F44" t="n">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="G44" t="n">
-        <v>494.08</v>
+        <v>641.92</v>
       </c>
       <c r="H44" t="n">
-        <v>81.47</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>26.4</v>
+        <v>22.48</v>
       </c>
       <c r="J44" t="n">
-        <v>11288.23</v>
+        <v>10779.09</v>
       </c>
       <c r="K44" t="n">
-        <v>167.86</v>
+        <v>163.79</v>
       </c>
       <c r="L44" t="n">
-        <v>72.56</v>
+        <v>88.61</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.57</v>
+        <v>3066.1</v>
       </c>
       <c r="N44" t="n">
-        <v>198.24</v>
+        <v>204.16</v>
       </c>
       <c r="O44" t="n">
-        <v>1542.84</v>
+        <v>2063.24</v>
       </c>
       <c r="P44" t="n">
-        <v>98.78</v>
+        <v>89.72</v>
       </c>
     </row>
     <row r="45">
@@ -2733,46 +2733,46 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15.31</v>
+        <v>16.6</v>
       </c>
       <c r="D45" t="n">
-        <v>56.12</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>506.33</v>
+        <v>470.44</v>
       </c>
       <c r="H45" t="n">
-        <v>46.58</v>
+        <v>50.84</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49</v>
+        <v>10.39</v>
       </c>
       <c r="J45" t="n">
-        <v>17467.68</v>
+        <v>14704.99</v>
       </c>
       <c r="K45" t="n">
-        <v>84.23</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>24.41</v>
+        <v>23.4</v>
       </c>
       <c r="M45" t="n">
-        <v>3327.31</v>
+        <v>2861.71</v>
       </c>
       <c r="N45" t="n">
-        <v>84.08</v>
+        <v>115.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1077.85</v>
+        <v>1245.41</v>
       </c>
       <c r="P45" t="n">
-        <v>110.49</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2787,46 +2787,46 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28.68</v>
+        <v>21.19</v>
       </c>
       <c r="D46" t="n">
-        <v>258.51</v>
+        <v>304.05</v>
       </c>
       <c r="E46" t="n">
-        <v>30.57</v>
+        <v>28.13</v>
       </c>
       <c r="F46" t="n">
-        <v>17.16</v>
+        <v>14.52</v>
       </c>
       <c r="G46" t="n">
-        <v>271.04</v>
+        <v>309.21</v>
       </c>
       <c r="H46" t="n">
-        <v>322.2</v>
+        <v>394.04</v>
       </c>
       <c r="I46" t="n">
-        <v>22.05</v>
+        <v>24.1</v>
       </c>
       <c r="J46" t="n">
-        <v>17845.83</v>
+        <v>14682.73</v>
       </c>
       <c r="K46" t="n">
-        <v>291.23</v>
+        <v>272.85</v>
       </c>
       <c r="L46" t="n">
-        <v>242.06</v>
+        <v>241.26</v>
       </c>
       <c r="M46" t="n">
-        <v>2995.79</v>
+        <v>3057.63</v>
       </c>
       <c r="N46" t="n">
-        <v>89.08</v>
+        <v>113.62</v>
       </c>
       <c r="O46" t="n">
-        <v>2480.11</v>
+        <v>3020.55</v>
       </c>
       <c r="P46" t="n">
-        <v>92.53</v>
+        <v>80.95999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="D47" t="n">
-        <v>85.20999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="E47" t="n">
-        <v>4.97</v>
+        <v>5.47</v>
       </c>
       <c r="F47" t="n">
-        <v>8.09</v>
+        <v>5.62</v>
       </c>
       <c r="G47" t="n">
-        <v>131.35</v>
+        <v>105.66</v>
       </c>
       <c r="H47" t="n">
-        <v>207.48</v>
+        <v>197.01</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2915.58</v>
+        <v>2398.01</v>
       </c>
       <c r="K47" t="n">
-        <v>240.58</v>
+        <v>262.02</v>
       </c>
       <c r="L47" t="n">
-        <v>35.99</v>
+        <v>32.24</v>
       </c>
       <c r="M47" t="n">
-        <v>1025.84</v>
+        <v>753.11</v>
       </c>
       <c r="N47" t="n">
-        <v>22.05</v>
+        <v>21.01</v>
       </c>
       <c r="O47" t="n">
-        <v>311.84</v>
+        <v>311.7</v>
       </c>
       <c r="P47" t="n">
-        <v>99.77</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="48">
@@ -2895,46 +2895,46 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.26</v>
+        <v>5.49</v>
       </c>
       <c r="D48" t="n">
-        <v>235.5</v>
+        <v>291.61</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="G48" t="n">
-        <v>279.89</v>
+        <v>282.81</v>
       </c>
       <c r="H48" t="n">
-        <v>167.05</v>
+        <v>196.84</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>12045.87</v>
+        <v>10126.07</v>
       </c>
       <c r="K48" t="n">
-        <v>126.69</v>
+        <v>171.03</v>
       </c>
       <c r="L48" t="n">
-        <v>57.52</v>
+        <v>73.87</v>
       </c>
       <c r="M48" t="n">
-        <v>5515.65</v>
+        <v>6716.07</v>
       </c>
       <c r="N48" t="n">
-        <v>102.13</v>
+        <v>84.08</v>
       </c>
       <c r="O48" t="n">
-        <v>1199.39</v>
+        <v>1347.58</v>
       </c>
       <c r="P48" t="n">
-        <v>114.28</v>
+        <v>96.66</v>
       </c>
     </row>
     <row r="49">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2961,34 +2961,34 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>13.27</v>
+        <v>11.66</v>
       </c>
       <c r="H49" t="n">
-        <v>10.62</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>7.16</v>
+        <v>7.22</v>
       </c>
       <c r="J49" t="n">
-        <v>1479.32</v>
+        <v>1713.26</v>
       </c>
       <c r="K49" t="n">
-        <v>32.9</v>
+        <v>38.38</v>
       </c>
       <c r="L49" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="M49" t="n">
-        <v>2846.42</v>
+        <v>2492.93</v>
       </c>
       <c r="N49" t="n">
-        <v>14.13</v>
+        <v>17.41</v>
       </c>
       <c r="O49" t="n">
-        <v>830.04</v>
+        <v>559.4</v>
       </c>
       <c r="P49" t="n">
-        <v>112.44</v>
+        <v>117.56</v>
       </c>
     </row>
     <row r="50">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.15</v>
+        <v>3.62</v>
       </c>
       <c r="D50" t="n">
-        <v>117.86</v>
+        <v>127.2</v>
       </c>
       <c r="E50" t="n">
-        <v>11.35</v>
+        <v>12.3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="G50" t="n">
-        <v>345.85</v>
+        <v>432.06</v>
       </c>
       <c r="H50" t="n">
-        <v>239.11</v>
+        <v>260.42</v>
       </c>
       <c r="I50" t="n">
-        <v>22.23</v>
+        <v>18.1</v>
       </c>
       <c r="J50" t="n">
-        <v>9613.690000000001</v>
+        <v>11855.53</v>
       </c>
       <c r="K50" t="n">
-        <v>248.42</v>
+        <v>261.22</v>
       </c>
       <c r="L50" t="n">
-        <v>129.45</v>
+        <v>133.16</v>
       </c>
       <c r="M50" t="n">
-        <v>2255.15</v>
+        <v>2789.06</v>
       </c>
       <c r="N50" t="n">
-        <v>114.85</v>
+        <v>115.06</v>
       </c>
       <c r="O50" t="n">
-        <v>1437.11</v>
+        <v>1726.85</v>
       </c>
       <c r="P50" t="n">
-        <v>83.31</v>
+        <v>88.73999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3057,46 +3057,46 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23.43</v>
+        <v>21.8</v>
       </c>
       <c r="D51" t="n">
-        <v>221.4</v>
+        <v>269.37</v>
       </c>
       <c r="E51" t="n">
-        <v>42.29</v>
+        <v>34.77</v>
       </c>
       <c r="F51" t="n">
-        <v>8.51</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>808.11</v>
+        <v>902.21</v>
       </c>
       <c r="H51" t="n">
-        <v>325.27</v>
+        <v>324.26</v>
       </c>
       <c r="I51" t="n">
-        <v>28.27</v>
+        <v>23.92</v>
       </c>
       <c r="J51" t="n">
-        <v>50606.62</v>
+        <v>41661.07</v>
       </c>
       <c r="K51" t="n">
-        <v>624.09</v>
+        <v>539.45</v>
       </c>
       <c r="L51" t="n">
-        <v>528.08</v>
+        <v>436.68</v>
       </c>
       <c r="M51" t="n">
-        <v>6019.48</v>
+        <v>5817.7</v>
       </c>
       <c r="N51" t="n">
-        <v>193.72</v>
+        <v>209.9</v>
       </c>
       <c r="O51" t="n">
-        <v>10241.21</v>
+        <v>10083.97</v>
       </c>
       <c r="P51" t="n">
-        <v>104.46</v>
+        <v>112.35</v>
       </c>
     </row>
     <row r="52">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5.71</v>
+        <v>6.64</v>
       </c>
       <c r="D52" t="n">
-        <v>402.93</v>
+        <v>406.78</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>188.66</v>
+        <v>182.92</v>
       </c>
       <c r="H52" t="n">
-        <v>96.37</v>
+        <v>122.54</v>
       </c>
       <c r="I52" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="J52" t="n">
-        <v>4349.97</v>
+        <v>4647</v>
       </c>
       <c r="K52" t="n">
-        <v>130.12</v>
+        <v>98.8</v>
       </c>
       <c r="L52" t="n">
-        <v>42.06</v>
+        <v>39.44</v>
       </c>
       <c r="M52" t="n">
-        <v>973.09</v>
+        <v>1280.85</v>
       </c>
       <c r="N52" t="n">
-        <v>115.81</v>
+        <v>136.93</v>
       </c>
       <c r="O52" t="n">
-        <v>1124.12</v>
+        <v>925.4</v>
       </c>
       <c r="P52" t="n">
-        <v>96.29000000000001</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="53">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>18.26</v>
+        <v>16.42</v>
       </c>
       <c r="H53" t="n">
-        <v>59.11</v>
+        <v>60.39</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1031.11</v>
+        <v>964.35</v>
       </c>
       <c r="K53" t="n">
-        <v>27.17</v>
+        <v>32.06</v>
       </c>
       <c r="L53" t="n">
-        <v>21.68</v>
+        <v>18.78</v>
       </c>
       <c r="M53" t="n">
-        <v>397.84</v>
+        <v>373.01</v>
       </c>
       <c r="N53" t="n">
-        <v>12.41</v>
+        <v>10.76</v>
       </c>
       <c r="O53" t="n">
-        <v>272.11</v>
+        <v>288.33</v>
       </c>
       <c r="P53" t="n">
-        <v>99.19</v>
+        <v>101.03</v>
       </c>
     </row>
     <row r="54">
@@ -3219,46 +3219,46 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>16.16</v>
+        <v>20.02</v>
       </c>
       <c r="D54" t="n">
-        <v>512.2</v>
+        <v>543.59</v>
       </c>
       <c r="E54" t="n">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>572.5599999999999</v>
+        <v>515.86</v>
       </c>
       <c r="H54" t="n">
-        <v>69.09</v>
+        <v>87.34</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>26746.28</v>
+        <v>25002.49</v>
       </c>
       <c r="K54" t="n">
-        <v>120.79</v>
+        <v>124.47</v>
       </c>
       <c r="L54" t="n">
-        <v>80.94</v>
+        <v>97.36</v>
       </c>
       <c r="M54" t="n">
-        <v>6128.62</v>
+        <v>4954.38</v>
       </c>
       <c r="N54" t="n">
-        <v>109.4</v>
+        <v>96.95</v>
       </c>
       <c r="O54" t="n">
-        <v>2022.42</v>
+        <v>2041.89</v>
       </c>
       <c r="P54" t="n">
-        <v>81.05</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="55">
@@ -3273,46 +3273,46 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.03</v>
+        <v>7.93</v>
       </c>
       <c r="D55" t="n">
-        <v>921.24</v>
+        <v>782.75</v>
       </c>
       <c r="E55" t="n">
-        <v>64.34999999999999</v>
+        <v>91.11</v>
       </c>
       <c r="F55" t="n">
-        <v>33.82</v>
+        <v>31.57</v>
       </c>
       <c r="G55" t="n">
-        <v>762.0599999999999</v>
+        <v>671.36</v>
       </c>
       <c r="H55" t="n">
-        <v>451.51</v>
+        <v>414.05</v>
       </c>
       <c r="I55" t="n">
-        <v>23.75</v>
+        <v>24.36</v>
       </c>
       <c r="J55" t="n">
-        <v>25641.31</v>
+        <v>20206.04</v>
       </c>
       <c r="K55" t="n">
-        <v>593.79</v>
+        <v>523.98</v>
       </c>
       <c r="L55" t="n">
-        <v>217.74</v>
+        <v>242.24</v>
       </c>
       <c r="M55" t="n">
-        <v>5316.19</v>
+        <v>6969.5</v>
       </c>
       <c r="N55" t="n">
-        <v>168.98</v>
+        <v>211.85</v>
       </c>
       <c r="O55" t="n">
-        <v>2708.51</v>
+        <v>2168.24</v>
       </c>
       <c r="P55" t="n">
-        <v>106.23</v>
+        <v>109.06</v>
       </c>
     </row>
     <row r="56">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>34.67</v>
+        <v>33.86</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3339,34 +3339,34 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>46.64</v>
+        <v>42.62</v>
       </c>
       <c r="H56" t="n">
-        <v>6.65</v>
+        <v>5.47</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4828.66</v>
+        <v>7165.26</v>
       </c>
       <c r="K56" t="n">
-        <v>62.91</v>
+        <v>69.3</v>
       </c>
       <c r="L56" t="n">
-        <v>56.41</v>
+        <v>54.73</v>
       </c>
       <c r="M56" t="n">
-        <v>1611.48</v>
+        <v>1585.56</v>
       </c>
       <c r="N56" t="n">
-        <v>62.3</v>
+        <v>60.37</v>
       </c>
       <c r="O56" t="n">
-        <v>670.33</v>
+        <v>625.34</v>
       </c>
       <c r="P56" t="n">
-        <v>92.33</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="57">
@@ -3381,46 +3381,46 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13.53</v>
+        <v>14.55</v>
       </c>
       <c r="D57" t="n">
-        <v>356.11</v>
+        <v>378.19</v>
       </c>
       <c r="E57" t="n">
-        <v>7.81</v>
+        <v>5.73</v>
       </c>
       <c r="F57" t="n">
-        <v>5.93</v>
+        <v>5.91</v>
       </c>
       <c r="G57" t="n">
-        <v>264.86</v>
+        <v>278.55</v>
       </c>
       <c r="H57" t="n">
-        <v>234.45</v>
+        <v>198.1</v>
       </c>
       <c r="I57" t="n">
-        <v>33.76</v>
+        <v>29.8</v>
       </c>
       <c r="J57" t="n">
-        <v>38684.27</v>
+        <v>30137.11</v>
       </c>
       <c r="K57" t="n">
-        <v>442.24</v>
+        <v>424.06</v>
       </c>
       <c r="L57" t="n">
-        <v>121.53</v>
+        <v>122.78</v>
       </c>
       <c r="M57" t="n">
-        <v>7359.5</v>
+        <v>9899.389999999999</v>
       </c>
       <c r="N57" t="n">
-        <v>148.2</v>
+        <v>171.58</v>
       </c>
       <c r="O57" t="n">
-        <v>2037.99</v>
+        <v>2076.07</v>
       </c>
       <c r="P57" t="n">
-        <v>85.58</v>
+        <v>110.12</v>
       </c>
     </row>
     <row r="58">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>18.29</v>
+        <v>14.7</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>26.14</v>
+        <v>28.29</v>
       </c>
       <c r="H58" t="n">
-        <v>6.11</v>
+        <v>5.3</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3162.67</v>
+        <v>3478.73</v>
       </c>
       <c r="K58" t="n">
-        <v>15.37</v>
+        <v>14.64</v>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>7.83</v>
       </c>
       <c r="M58" t="n">
-        <v>438.95</v>
+        <v>412.52</v>
       </c>
       <c r="N58" t="n">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="O58" t="n">
-        <v>399.44</v>
+        <v>295.65</v>
       </c>
       <c r="P58" t="n">
-        <v>99.01000000000001</v>
+        <v>114.57</v>
       </c>
     </row>
     <row r="59">
@@ -3489,46 +3489,46 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="D59" t="n">
-        <v>8.119999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>15.84</v>
+        <v>20.68</v>
       </c>
       <c r="H59" t="n">
-        <v>4.27</v>
+        <v>4.41</v>
       </c>
       <c r="I59" t="n">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="J59" t="n">
-        <v>292.41</v>
+        <v>234.78</v>
       </c>
       <c r="K59" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="L59" t="n">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="M59" t="n">
-        <v>97.40000000000001</v>
+        <v>70.03</v>
       </c>
       <c r="N59" t="n">
-        <v>11.06</v>
+        <v>12.82</v>
       </c>
       <c r="O59" t="n">
-        <v>1219.97</v>
+        <v>1299.68</v>
       </c>
       <c r="P59" t="n">
-        <v>119.54</v>
+        <v>111.41</v>
       </c>
     </row>
     <row r="60">

--- a/obfuscated/Offenses_P.xlsx
+++ b/obfuscated/Offenses_P.xlsx
@@ -681,46 +681,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>649.12</v>
+        <v>733.79</v>
       </c>
       <c r="D7" t="n">
-        <v>15217.7</v>
+        <v>10923.17</v>
       </c>
       <c r="E7" t="n">
-        <v>734.84</v>
+        <v>547.6900000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>320.1</v>
+        <v>336.01</v>
       </c>
       <c r="G7" t="n">
-        <v>15449.63</v>
+        <v>14032.47</v>
       </c>
       <c r="H7" t="n">
-        <v>7363.6</v>
+        <v>7870.79</v>
       </c>
       <c r="I7" t="n">
-        <v>6745.84</v>
+        <v>8645.219999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>964219.15</v>
+        <v>882875.91</v>
       </c>
       <c r="K7" t="n">
-        <v>14859.17</v>
+        <v>12563.16</v>
       </c>
       <c r="L7" t="n">
-        <v>4611.7</v>
+        <v>6627.38</v>
       </c>
       <c r="M7" t="n">
-        <v>203520</v>
+        <v>232005.06</v>
       </c>
       <c r="N7" t="n">
-        <v>5523.8</v>
+        <v>5864.19</v>
       </c>
       <c r="O7" t="n">
-        <v>95538.99000000001</v>
+        <v>109035.24</v>
       </c>
       <c r="P7" t="n">
-        <v>111.73</v>
+        <v>105.76</v>
       </c>
     </row>
     <row r="8">
@@ -738,43 +738,43 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>295.11</v>
+        <v>301.22</v>
       </c>
       <c r="E8" t="n">
-        <v>5.25</v>
+        <v>4.51</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>130.39</v>
+        <v>96.97</v>
       </c>
       <c r="H8" t="n">
-        <v>69.68000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="I8" t="n">
-        <v>15.61</v>
+        <v>20.54</v>
       </c>
       <c r="J8" t="n">
-        <v>17006.92</v>
+        <v>16569.89</v>
       </c>
       <c r="K8" t="n">
-        <v>157.44</v>
+        <v>165.77</v>
       </c>
       <c r="L8" t="n">
-        <v>92.28</v>
+        <v>91.77</v>
       </c>
       <c r="M8" t="n">
-        <v>2218.97</v>
+        <v>2343.4</v>
       </c>
       <c r="N8" t="n">
-        <v>108.53</v>
+        <v>120.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1206.99</v>
+        <v>1335.37</v>
       </c>
       <c r="P8" t="n">
-        <v>117.58</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -792,43 +792,43 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.66</v>
+        <v>4.16</v>
       </c>
       <c r="E9" t="n">
-        <v>3.49</v>
+        <v>2.72</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13.99</v>
+        <v>12.12</v>
       </c>
       <c r="H9" t="n">
-        <v>46.4</v>
+        <v>34.28</v>
       </c>
       <c r="I9" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1925.9</v>
+        <v>2026.15</v>
       </c>
       <c r="K9" t="n">
-        <v>20.82</v>
+        <v>29.51</v>
       </c>
       <c r="L9" t="n">
-        <v>18.16</v>
+        <v>15.59</v>
       </c>
       <c r="M9" t="n">
-        <v>275.76</v>
+        <v>384.16</v>
       </c>
       <c r="N9" t="n">
-        <v>12.32</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>416.52</v>
+        <v>468.9</v>
       </c>
       <c r="P9" t="n">
-        <v>113.13</v>
+        <v>109.65</v>
       </c>
     </row>
     <row r="10">
@@ -843,46 +843,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.779999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="D10" t="n">
-        <v>546.77</v>
+        <v>779.01</v>
       </c>
       <c r="E10" t="n">
-        <v>2.06</v>
+        <v>2.39</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>679.8</v>
+        <v>698.41</v>
       </c>
       <c r="H10" t="n">
-        <v>117.64</v>
+        <v>125.3</v>
       </c>
       <c r="I10" t="n">
-        <v>6.63</v>
+        <v>7.19</v>
       </c>
       <c r="J10" t="n">
-        <v>20230.32</v>
+        <v>16239.36</v>
       </c>
       <c r="K10" t="n">
-        <v>161.54</v>
+        <v>180.51</v>
       </c>
       <c r="L10" t="n">
-        <v>110.15</v>
+        <v>93.98</v>
       </c>
       <c r="M10" t="n">
-        <v>6195.5</v>
+        <v>5026.16</v>
       </c>
       <c r="N10" t="n">
-        <v>59.41</v>
+        <v>72.52</v>
       </c>
       <c r="O10" t="n">
-        <v>2087.74</v>
+        <v>1890.51</v>
       </c>
       <c r="P10" t="n">
-        <v>85.44</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="11">
@@ -897,46 +897,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.95</v>
+        <v>22.33</v>
       </c>
       <c r="D11" t="n">
-        <v>56.3</v>
+        <v>58.82</v>
       </c>
       <c r="E11" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>184.06</v>
+        <v>197.09</v>
       </c>
       <c r="H11" t="n">
-        <v>41.03</v>
+        <v>34.98</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8932.58</v>
+        <v>8818.700000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>86.84999999999999</v>
+        <v>109.1</v>
       </c>
       <c r="L11" t="n">
-        <v>35.47</v>
+        <v>36.71</v>
       </c>
       <c r="M11" t="n">
-        <v>900.41</v>
+        <v>1120.1</v>
       </c>
       <c r="N11" t="n">
-        <v>48.87</v>
+        <v>39.73</v>
       </c>
       <c r="O11" t="n">
-        <v>1122.09</v>
+        <v>1290.54</v>
       </c>
       <c r="P11" t="n">
-        <v>96.95</v>
+        <v>83.23</v>
       </c>
     </row>
     <row r="12">
@@ -951,46 +951,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>101.31</v>
+        <v>137.98</v>
       </c>
       <c r="D12" t="n">
-        <v>1464.4</v>
+        <v>1338.85</v>
       </c>
       <c r="E12" t="n">
-        <v>130.15</v>
+        <v>113.21</v>
       </c>
       <c r="F12" t="n">
-        <v>85.98</v>
+        <v>69.89</v>
       </c>
       <c r="G12" t="n">
-        <v>1860.71</v>
+        <v>1744.57</v>
       </c>
       <c r="H12" t="n">
-        <v>2211.25</v>
+        <v>2055.39</v>
       </c>
       <c r="I12" t="n">
-        <v>312.79</v>
+        <v>305.73</v>
       </c>
       <c r="J12" t="n">
-        <v>87282.22</v>
+        <v>88222.50999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>1471.26</v>
+        <v>2041.21</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.23</v>
+        <v>940.16</v>
       </c>
       <c r="M12" t="n">
-        <v>44569.93</v>
+        <v>51115.61</v>
       </c>
       <c r="N12" t="n">
-        <v>2008.43</v>
+        <v>2465.02</v>
       </c>
       <c r="O12" t="n">
-        <v>9707.139999999999</v>
+        <v>8200.24</v>
       </c>
       <c r="P12" t="n">
-        <v>103.86</v>
+        <v>86.06999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>66.65000000000001</v>
+        <v>80.45</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>128.69</v>
+        <v>109.73</v>
       </c>
       <c r="H13" t="n">
-        <v>42.08</v>
+        <v>48.48</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9060.49</v>
+        <v>6735.52</v>
       </c>
       <c r="K13" t="n">
-        <v>108.85</v>
+        <v>102.56</v>
       </c>
       <c r="L13" t="n">
-        <v>10.26</v>
+        <v>9.76</v>
       </c>
       <c r="M13" t="n">
-        <v>1191.86</v>
+        <v>972.83</v>
       </c>
       <c r="N13" t="n">
-        <v>41.93</v>
+        <v>32.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1667.02</v>
+        <v>1614.42</v>
       </c>
       <c r="P13" t="n">
-        <v>90.84999999999999</v>
+        <v>106.63</v>
       </c>
     </row>
     <row r="14">
@@ -1059,46 +1059,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="D14" t="n">
-        <v>180.09</v>
+        <v>155.89</v>
       </c>
       <c r="E14" t="n">
-        <v>9.17</v>
+        <v>8.94</v>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="G14" t="n">
-        <v>99.43000000000001</v>
+        <v>103.45</v>
       </c>
       <c r="H14" t="n">
-        <v>202.57</v>
+        <v>202.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>4.41</v>
       </c>
       <c r="J14" t="n">
-        <v>14110.5</v>
+        <v>12578.02</v>
       </c>
       <c r="K14" t="n">
-        <v>118.57</v>
+        <v>94.62</v>
       </c>
       <c r="L14" t="n">
-        <v>21.76</v>
+        <v>20.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1834.26</v>
+        <v>2026.49</v>
       </c>
       <c r="N14" t="n">
-        <v>49.1</v>
+        <v>46.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1075.6</v>
+        <v>1353.07</v>
       </c>
       <c r="P14" t="n">
-        <v>106.98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>5.23</v>
+        <v>4.94</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.42</v>
+        <v>7.43</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>852.71</v>
+        <v>788.25</v>
       </c>
       <c r="K15" t="n">
         <v>0.87</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>559.0599999999999</v>
+        <v>471.22</v>
       </c>
       <c r="N15" t="n">
-        <v>5.74</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>214.58</v>
+        <v>190.47</v>
       </c>
       <c r="P15" t="n">
-        <v>81.08</v>
+        <v>91.97</v>
       </c>
     </row>
     <row r="16">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10.57</v>
+        <v>7.69</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.16</v>
+        <v>18.25</v>
       </c>
       <c r="H16" t="n">
-        <v>16.28</v>
+        <v>18.11</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3702.02</v>
+        <v>3968.73</v>
       </c>
       <c r="K16" t="n">
-        <v>32.42</v>
+        <v>38.11</v>
       </c>
       <c r="L16" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.95</v>
+        <v>1116.09</v>
       </c>
       <c r="N16" t="n">
-        <v>15.41</v>
+        <v>18.2</v>
       </c>
       <c r="O16" t="n">
-        <v>264.07</v>
+        <v>256.61</v>
       </c>
       <c r="P16" t="n">
-        <v>98.72</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="17">
@@ -1221,46 +1221,46 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34.94</v>
+        <v>42.24</v>
       </c>
       <c r="D17" t="n">
-        <v>54.9</v>
+        <v>47.11</v>
       </c>
       <c r="E17" t="n">
-        <v>6.51</v>
+        <v>7.04</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>94.17</v>
+        <v>100.96</v>
       </c>
       <c r="H17" t="n">
-        <v>6.11</v>
+        <v>6.35</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7246.59</v>
+        <v>8692.459999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>103.86</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>21.91</v>
+        <v>19.24</v>
       </c>
       <c r="M17" t="n">
-        <v>4639.59</v>
+        <v>4715.28</v>
       </c>
       <c r="N17" t="n">
-        <v>117.83</v>
+        <v>146.77</v>
       </c>
       <c r="O17" t="n">
-        <v>3233.97</v>
+        <v>4424.83</v>
       </c>
       <c r="P17" t="n">
-        <v>82.89</v>
+        <v>105.92</v>
       </c>
     </row>
     <row r="18">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42.04</v>
+        <v>40.05</v>
       </c>
       <c r="D18" t="n">
-        <v>2110.36</v>
+        <v>2083.47</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.64</v>
+        <v>116.26</v>
       </c>
       <c r="H18" t="n">
-        <v>34.76</v>
+        <v>44.52</v>
       </c>
       <c r="I18" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>58105.62</v>
+        <v>46916.09</v>
       </c>
       <c r="K18" t="n">
-        <v>89.43000000000001</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>32.16</v>
+        <v>35.15</v>
       </c>
       <c r="M18" t="n">
-        <v>9311.27</v>
+        <v>13791.21</v>
       </c>
       <c r="N18" t="n">
-        <v>200.25</v>
+        <v>213.74</v>
       </c>
       <c r="O18" t="n">
-        <v>2770.62</v>
+        <v>2495.16</v>
       </c>
       <c r="P18" t="n">
-        <v>105.19</v>
+        <v>109.81</v>
       </c>
     </row>
     <row r="19">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.19</v>
+        <v>4.55</v>
       </c>
       <c r="D19" t="n">
-        <v>163.95</v>
+        <v>133.92</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.94</v>
+        <v>13.56</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.25</v>
+        <v>10.41</v>
       </c>
       <c r="L19" t="n">
-        <v>3.41</v>
+        <v>2.7</v>
       </c>
       <c r="M19" t="n">
-        <v>550.91</v>
+        <v>504.12</v>
       </c>
       <c r="N19" t="n">
-        <v>4.65</v>
+        <v>3.71</v>
       </c>
       <c r="O19" t="n">
-        <v>295.39</v>
+        <v>341.79</v>
       </c>
       <c r="P19" t="n">
-        <v>101.28</v>
+        <v>106.08</v>
       </c>
     </row>
     <row r="20">
@@ -1383,46 +1383,46 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.85</v>
+        <v>6.93</v>
       </c>
       <c r="D20" t="n">
-        <v>40.65</v>
+        <v>44.29</v>
       </c>
       <c r="E20" t="n">
-        <v>4.52</v>
+        <v>5.15</v>
       </c>
       <c r="F20" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="G20" t="n">
-        <v>142.31</v>
+        <v>179</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27</v>
+        <v>30.56</v>
       </c>
       <c r="I20" t="n">
-        <v>3.21</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>2008.01</v>
+        <v>2623.9</v>
       </c>
       <c r="K20" t="n">
-        <v>44.84</v>
+        <v>36.06</v>
       </c>
       <c r="L20" t="n">
-        <v>32.35</v>
+        <v>23.9</v>
       </c>
       <c r="M20" t="n">
-        <v>805.53</v>
+        <v>826.04</v>
       </c>
       <c r="N20" t="n">
-        <v>26.82</v>
+        <v>27.55</v>
       </c>
       <c r="O20" t="n">
-        <v>788.7</v>
+        <v>605.48</v>
       </c>
       <c r="P20" t="n">
-        <v>97.01000000000001</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32.25</v>
+        <v>37.44</v>
       </c>
       <c r="D21" t="n">
-        <v>747.39</v>
+        <v>624.74</v>
       </c>
       <c r="E21" t="n">
-        <v>9.73</v>
+        <v>9.42</v>
       </c>
       <c r="F21" t="n">
-        <v>15.68</v>
+        <v>14.94</v>
       </c>
       <c r="G21" t="n">
-        <v>1118.22</v>
+        <v>866.63</v>
       </c>
       <c r="H21" t="n">
-        <v>348.99</v>
+        <v>422</v>
       </c>
       <c r="I21" t="n">
-        <v>5391.77</v>
+        <v>6919.33</v>
       </c>
       <c r="J21" t="n">
-        <v>28550.06</v>
+        <v>23326.03</v>
       </c>
       <c r="K21" t="n">
-        <v>384.13</v>
+        <v>355.67</v>
       </c>
       <c r="L21" t="n">
-        <v>357.42</v>
+        <v>415.04</v>
       </c>
       <c r="M21" t="n">
-        <v>6459.24</v>
+        <v>7047.34</v>
       </c>
       <c r="N21" t="n">
-        <v>328.52</v>
+        <v>356.96</v>
       </c>
       <c r="O21" t="n">
-        <v>4284.48</v>
+        <v>3827.64</v>
       </c>
       <c r="P21" t="n">
-        <v>99.62</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="22">
@@ -1491,46 +1491,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.95</v>
+        <v>12.93</v>
       </c>
       <c r="D22" t="n">
-        <v>416.97</v>
+        <v>581.01</v>
       </c>
       <c r="E22" t="n">
-        <v>135.27</v>
+        <v>111.32</v>
       </c>
       <c r="F22" t="n">
-        <v>30.84</v>
+        <v>30.49</v>
       </c>
       <c r="G22" t="n">
-        <v>573.54</v>
+        <v>504.33</v>
       </c>
       <c r="H22" t="n">
-        <v>406.43</v>
+        <v>302.86</v>
       </c>
       <c r="I22" t="n">
-        <v>42.98</v>
+        <v>43.91</v>
       </c>
       <c r="J22" t="n">
-        <v>15380.14</v>
+        <v>15201.2</v>
       </c>
       <c r="K22" t="n">
-        <v>294.15</v>
+        <v>279.02</v>
       </c>
       <c r="L22" t="n">
-        <v>241.84</v>
+        <v>209.58</v>
       </c>
       <c r="M22" t="n">
-        <v>3461.44</v>
+        <v>3277.47</v>
       </c>
       <c r="N22" t="n">
-        <v>122.46</v>
+        <v>127.02</v>
       </c>
       <c r="O22" t="n">
-        <v>1689.32</v>
+        <v>1752.04</v>
       </c>
       <c r="P22" t="n">
-        <v>95.33</v>
+        <v>83.23999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1545,46 +1545,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="D23" t="n">
-        <v>19.29</v>
+        <v>22.24</v>
       </c>
       <c r="E23" t="n">
-        <v>8.289999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>171.02</v>
+        <v>175.34</v>
       </c>
       <c r="H23" t="n">
-        <v>192.15</v>
+        <v>194.67</v>
       </c>
       <c r="I23" t="n">
-        <v>22.22</v>
+        <v>17.99</v>
       </c>
       <c r="J23" t="n">
-        <v>11810.86</v>
+        <v>11632.28</v>
       </c>
       <c r="K23" t="n">
-        <v>140.9</v>
+        <v>140.95</v>
       </c>
       <c r="L23" t="n">
-        <v>58.87</v>
+        <v>55.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1298.34</v>
+        <v>1299.93</v>
       </c>
       <c r="N23" t="n">
-        <v>209.57</v>
+        <v>187.07</v>
       </c>
       <c r="O23" t="n">
-        <v>1599.73</v>
+        <v>1137.66</v>
       </c>
       <c r="P23" t="n">
-        <v>105.23</v>
+        <v>108.73</v>
       </c>
     </row>
     <row r="24">
@@ -1599,46 +1599,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.65</v>
+        <v>26.14</v>
       </c>
       <c r="D24" t="n">
-        <v>65.62</v>
+        <v>78.19</v>
       </c>
       <c r="E24" t="n">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="G24" t="n">
-        <v>75.33</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>101.92</v>
+        <v>92.8</v>
       </c>
       <c r="I24" t="n">
-        <v>16.69</v>
+        <v>16.36</v>
       </c>
       <c r="J24" t="n">
-        <v>10599.27</v>
+        <v>9326.35</v>
       </c>
       <c r="K24" t="n">
-        <v>76.53</v>
+        <v>82.16</v>
       </c>
       <c r="L24" t="n">
-        <v>44.97</v>
+        <v>47.74</v>
       </c>
       <c r="M24" t="n">
-        <v>3985.71</v>
+        <v>3252.06</v>
       </c>
       <c r="N24" t="n">
-        <v>40.39</v>
+        <v>40.84</v>
       </c>
       <c r="O24" t="n">
-        <v>1580.44</v>
+        <v>1094.74</v>
       </c>
       <c r="P24" t="n">
-        <v>100.7</v>
+        <v>101.87</v>
       </c>
     </row>
     <row r="25">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="D25" t="n">
-        <v>49.36</v>
+        <v>42.43</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1665,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.75</v>
+        <v>42.59</v>
       </c>
       <c r="H25" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22957.51</v>
+        <v>20537.66</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21</v>
+        <v>28.44</v>
       </c>
       <c r="L25" t="n">
-        <v>205.65</v>
+        <v>166.22</v>
       </c>
       <c r="M25" t="n">
-        <v>412.65</v>
+        <v>424.31</v>
       </c>
       <c r="N25" t="n">
-        <v>143.99</v>
+        <v>181.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.73</v>
+        <v>1453.09</v>
       </c>
       <c r="P25" t="n">
-        <v>94.95</v>
+        <v>92.97</v>
       </c>
     </row>
     <row r="26">
@@ -1710,43 +1710,43 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>58.15</v>
+        <v>55.47</v>
       </c>
       <c r="E26" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="F26" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="G26" t="n">
-        <v>199.82</v>
+        <v>172.95</v>
       </c>
       <c r="H26" t="n">
-        <v>67.52</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
-        <v>35837.9</v>
+        <v>50185.85</v>
       </c>
       <c r="K26" t="n">
-        <v>43.75</v>
+        <v>58.91</v>
       </c>
       <c r="L26" t="n">
-        <v>13.38</v>
+        <v>15.81</v>
       </c>
       <c r="M26" t="n">
-        <v>7678.79</v>
+        <v>8178.5</v>
       </c>
       <c r="N26" t="n">
-        <v>153.76</v>
+        <v>115.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1480.36</v>
+        <v>1565.3</v>
       </c>
       <c r="P26" t="n">
-        <v>109.68</v>
+        <v>102.03</v>
       </c>
     </row>
     <row r="27">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>17.63</v>
+        <v>19.95</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1773,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>37.38</v>
+        <v>37.24</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>31.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="J27" t="n">
-        <v>1605.59</v>
+        <v>1822.77</v>
       </c>
       <c r="K27" t="n">
-        <v>43.68</v>
+        <v>46.77</v>
       </c>
       <c r="L27" t="n">
-        <v>42.44</v>
+        <v>35.71</v>
       </c>
       <c r="M27" t="n">
-        <v>399.81</v>
+        <v>376.91</v>
       </c>
       <c r="N27" t="n">
-        <v>8.93</v>
+        <v>8.43</v>
       </c>
       <c r="O27" t="n">
-        <v>549.5599999999999</v>
+        <v>546.83</v>
       </c>
       <c r="P27" t="n">
-        <v>105.25</v>
+        <v>111.18</v>
       </c>
     </row>
     <row r="28">
@@ -1815,46 +1815,46 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.26</v>
+        <v>7.31</v>
       </c>
       <c r="D28" t="n">
-        <v>658.46</v>
+        <v>829.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="G28" t="n">
-        <v>682.6799999999999</v>
+        <v>562.3</v>
       </c>
       <c r="H28" t="n">
-        <v>174.19</v>
+        <v>123.14</v>
       </c>
       <c r="I28" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="J28" t="n">
-        <v>24852.7</v>
+        <v>28312.51</v>
       </c>
       <c r="K28" t="n">
-        <v>135.92</v>
+        <v>124.21</v>
       </c>
       <c r="L28" t="n">
-        <v>73.87</v>
+        <v>80.31</v>
       </c>
       <c r="M28" t="n">
-        <v>5645.72</v>
+        <v>4636.02</v>
       </c>
       <c r="N28" t="n">
-        <v>62.45</v>
+        <v>55.56</v>
       </c>
       <c r="O28" t="n">
-        <v>1174.21</v>
+        <v>1363.37</v>
       </c>
       <c r="P28" t="n">
-        <v>78.39</v>
+        <v>88.20999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1869,46 +1869,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39.59</v>
+        <v>45.25</v>
       </c>
       <c r="D29" t="n">
-        <v>179.35</v>
+        <v>177.71</v>
       </c>
       <c r="E29" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="F29" t="n">
-        <v>3.31</v>
+        <v>2.63</v>
       </c>
       <c r="G29" t="n">
-        <v>338.95</v>
+        <v>368.13</v>
       </c>
       <c r="H29" t="n">
-        <v>257.39</v>
+        <v>253.63</v>
       </c>
       <c r="I29" t="n">
-        <v>7.56</v>
+        <v>9.16</v>
       </c>
       <c r="J29" t="n">
-        <v>11155.27</v>
+        <v>11598.38</v>
       </c>
       <c r="K29" t="n">
-        <v>145.42</v>
+        <v>120.65</v>
       </c>
       <c r="L29" t="n">
-        <v>55.63</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>4777.8</v>
+        <v>4556.36</v>
       </c>
       <c r="N29" t="n">
-        <v>55.2</v>
+        <v>60.71</v>
       </c>
       <c r="O29" t="n">
-        <v>2137.24</v>
+        <v>1886.11</v>
       </c>
       <c r="P29" t="n">
-        <v>80.05</v>
+        <v>87.73999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1923,46 +1923,46 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21.55</v>
+        <v>21.3</v>
       </c>
       <c r="D30" t="n">
-        <v>287.64</v>
+        <v>254.5</v>
       </c>
       <c r="E30" t="n">
-        <v>101.27</v>
+        <v>73.77</v>
       </c>
       <c r="F30" t="n">
-        <v>21.22</v>
+        <v>23.2</v>
       </c>
       <c r="G30" t="n">
-        <v>659.16</v>
+        <v>589.46</v>
       </c>
       <c r="H30" t="n">
-        <v>529.86</v>
+        <v>564.64</v>
       </c>
       <c r="I30" t="n">
-        <v>333.61</v>
+        <v>294.72</v>
       </c>
       <c r="J30" t="n">
-        <v>37564.54</v>
+        <v>35897.53</v>
       </c>
       <c r="K30" t="n">
-        <v>407.16</v>
+        <v>337.15</v>
       </c>
       <c r="L30" t="n">
-        <v>191.69</v>
+        <v>198.07</v>
       </c>
       <c r="M30" t="n">
-        <v>5781.49</v>
+        <v>5707.97</v>
       </c>
       <c r="N30" t="n">
-        <v>104</v>
+        <v>123.88</v>
       </c>
       <c r="O30" t="n">
-        <v>4192.89</v>
+        <v>3275.81</v>
       </c>
       <c r="P30" t="n">
-        <v>98.11</v>
+        <v>107.05</v>
       </c>
     </row>
     <row r="31">
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.84</v>
+        <v>6.85</v>
       </c>
       <c r="D31" t="n">
-        <v>200.01</v>
+        <v>232.21</v>
       </c>
       <c r="E31" t="n">
-        <v>4.56</v>
+        <v>4.91</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>370.37</v>
+        <v>470.19</v>
       </c>
       <c r="H31" t="n">
-        <v>194.4</v>
+        <v>216.66</v>
       </c>
       <c r="I31" t="n">
-        <v>8.99</v>
+        <v>6.99</v>
       </c>
       <c r="J31" t="n">
-        <v>16051.71</v>
+        <v>17189.37</v>
       </c>
       <c r="K31" t="n">
-        <v>277.74</v>
+        <v>207.52</v>
       </c>
       <c r="L31" t="n">
-        <v>81.25</v>
+        <v>88.66</v>
       </c>
       <c r="M31" t="n">
-        <v>4980.72</v>
+        <v>5064.88</v>
       </c>
       <c r="N31" t="n">
-        <v>75.53</v>
+        <v>81.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1935.43</v>
+        <v>2668.78</v>
       </c>
       <c r="P31" t="n">
-        <v>89.33</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="32">
@@ -2031,46 +2031,46 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="D32" t="n">
-        <v>27.46</v>
+        <v>24.42</v>
       </c>
       <c r="E32" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>95.88</v>
+        <v>95.91</v>
       </c>
       <c r="H32" t="n">
-        <v>20.99</v>
+        <v>15.54</v>
       </c>
       <c r="I32" t="n">
-        <v>8.82</v>
+        <v>11.02</v>
       </c>
       <c r="J32" t="n">
-        <v>8277.98</v>
+        <v>6372.5</v>
       </c>
       <c r="K32" t="n">
-        <v>59.6</v>
+        <v>68.73</v>
       </c>
       <c r="L32" t="n">
-        <v>22.29</v>
+        <v>19.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1067.52</v>
+        <v>1045.99</v>
       </c>
       <c r="N32" t="n">
-        <v>121.81</v>
+        <v>118.7</v>
       </c>
       <c r="O32" t="n">
-        <v>874.52</v>
+        <v>1150.5</v>
       </c>
       <c r="P32" t="n">
-        <v>80.2</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="33">
@@ -2085,46 +2085,46 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53.38</v>
+        <v>50.83</v>
       </c>
       <c r="D33" t="n">
-        <v>481.28</v>
+        <v>466.54</v>
       </c>
       <c r="E33" t="n">
-        <v>47.5</v>
+        <v>51.58</v>
       </c>
       <c r="F33" t="n">
-        <v>26.66</v>
+        <v>31.92</v>
       </c>
       <c r="G33" t="n">
-        <v>840.73</v>
+        <v>767.42</v>
       </c>
       <c r="H33" t="n">
-        <v>395.81</v>
+        <v>356.76</v>
       </c>
       <c r="I33" t="n">
-        <v>65.22</v>
+        <v>61.89</v>
       </c>
       <c r="J33" t="n">
-        <v>24561.93</v>
+        <v>24929.08</v>
       </c>
       <c r="K33" t="n">
-        <v>534.9</v>
+        <v>497.98</v>
       </c>
       <c r="L33" t="n">
-        <v>500.49</v>
+        <v>405.94</v>
       </c>
       <c r="M33" t="n">
-        <v>4430.23</v>
+        <v>5297.26</v>
       </c>
       <c r="N33" t="n">
-        <v>126.68</v>
+        <v>132.73</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.05</v>
+        <v>2339.65</v>
       </c>
       <c r="P33" t="n">
-        <v>105.02</v>
+        <v>108.23</v>
       </c>
     </row>
     <row r="34">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="D34" t="n">
-        <v>50.44</v>
+        <v>45.67</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2151,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>42.66</v>
+        <v>46.3</v>
       </c>
       <c r="H34" t="n">
-        <v>44.96</v>
+        <v>58.89</v>
       </c>
       <c r="I34" t="n">
-        <v>17.49</v>
+        <v>15.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1373.68</v>
+        <v>1642.99</v>
       </c>
       <c r="K34" t="n">
-        <v>62.69</v>
+        <v>66.5</v>
       </c>
       <c r="L34" t="n">
-        <v>34.38</v>
+        <v>36.08</v>
       </c>
       <c r="M34" t="n">
-        <v>226.35</v>
+        <v>270.59</v>
       </c>
       <c r="N34" t="n">
-        <v>11.97</v>
+        <v>10.84</v>
       </c>
       <c r="O34" t="n">
-        <v>747.62</v>
+        <v>938.09</v>
       </c>
       <c r="P34" t="n">
-        <v>94.98999999999999</v>
+        <v>83.19</v>
       </c>
     </row>
     <row r="35">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="D35" t="n">
-        <v>151.57</v>
+        <v>133.16</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>78.11</v>
+        <v>87.47</v>
       </c>
       <c r="H35" t="n">
-        <v>133.83</v>
+        <v>113.02</v>
       </c>
       <c r="I35" t="n">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="J35" t="n">
-        <v>9361.059999999999</v>
+        <v>9627.26</v>
       </c>
       <c r="K35" t="n">
-        <v>92.65000000000001</v>
+        <v>88.61</v>
       </c>
       <c r="L35" t="n">
-        <v>27.91</v>
+        <v>23.4</v>
       </c>
       <c r="M35" t="n">
-        <v>2719.97</v>
+        <v>3378.92</v>
       </c>
       <c r="N35" t="n">
-        <v>16.94</v>
+        <v>13.65</v>
       </c>
       <c r="O35" t="n">
-        <v>946.75</v>
+        <v>1130.93</v>
       </c>
       <c r="P35" t="n">
-        <v>112.12</v>
+        <v>111.15</v>
       </c>
     </row>
     <row r="36">
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>99.17</v>
+        <v>122.79</v>
       </c>
       <c r="E36" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="F36" t="n">
-        <v>22.6</v>
+        <v>22.86</v>
       </c>
       <c r="G36" t="n">
-        <v>1525.41</v>
+        <v>1327.39</v>
       </c>
       <c r="H36" t="n">
-        <v>15.82</v>
+        <v>17.25</v>
       </c>
       <c r="I36" t="n">
-        <v>6.82</v>
+        <v>6.2</v>
       </c>
       <c r="J36" t="n">
-        <v>13016.32</v>
+        <v>11522.99</v>
       </c>
       <c r="K36" t="n">
-        <v>5329.19</v>
+        <v>4985.32</v>
       </c>
       <c r="L36" t="n">
-        <v>165.76</v>
+        <v>121.38</v>
       </c>
       <c r="M36" t="n">
-        <v>4037.11</v>
+        <v>3804.72</v>
       </c>
       <c r="N36" t="n">
-        <v>48.55</v>
+        <v>61.66</v>
       </c>
       <c r="O36" t="n">
-        <v>687.6799999999999</v>
+        <v>609.67</v>
       </c>
       <c r="P36" t="n">
-        <v>116.87</v>
+        <v>94.88</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.45</v>
+        <v>14.55</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2313,34 +2313,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>36.7</v>
+        <v>31.39</v>
       </c>
       <c r="H37" t="n">
-        <v>28.97</v>
+        <v>28.98</v>
       </c>
       <c r="I37" t="n">
-        <v>11.97</v>
+        <v>10.19</v>
       </c>
       <c r="J37" t="n">
-        <v>1821.42</v>
+        <v>1842.21</v>
       </c>
       <c r="K37" t="n">
-        <v>37.83</v>
+        <v>32.56</v>
       </c>
       <c r="L37" t="n">
-        <v>26.42</v>
+        <v>24.71</v>
       </c>
       <c r="M37" t="n">
-        <v>432.16</v>
+        <v>477.69</v>
       </c>
       <c r="N37" t="n">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="O37" t="n">
-        <v>532.64</v>
+        <v>499.93</v>
       </c>
       <c r="P37" t="n">
-        <v>88.84999999999999</v>
+        <v>104.87</v>
       </c>
     </row>
     <row r="38">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="D38" t="n">
-        <v>96.51000000000001</v>
+        <v>97.19</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2367,34 +2367,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>207.87</v>
+        <v>201.52</v>
       </c>
       <c r="H38" t="n">
-        <v>99.62</v>
+        <v>109.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.83</v>
+        <v>2.74</v>
       </c>
       <c r="J38" t="n">
-        <v>6722.75</v>
+        <v>8131.39</v>
       </c>
       <c r="K38" t="n">
-        <v>161.89</v>
+        <v>111.76</v>
       </c>
       <c r="L38" t="n">
-        <v>45.71</v>
+        <v>45.18</v>
       </c>
       <c r="M38" t="n">
-        <v>1420.4</v>
+        <v>1323.39</v>
       </c>
       <c r="N38" t="n">
-        <v>68.38</v>
+        <v>52.5</v>
       </c>
       <c r="O38" t="n">
-        <v>2620.55</v>
+        <v>2092.99</v>
       </c>
       <c r="P38" t="n">
-        <v>109.84</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="39">
@@ -2409,46 +2409,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="D39" t="n">
-        <v>174.17</v>
+        <v>157.75</v>
       </c>
       <c r="E39" t="n">
-        <v>10.7</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>98</v>
+        <v>90.02</v>
       </c>
       <c r="H39" t="n">
-        <v>83.45</v>
+        <v>93.34</v>
       </c>
       <c r="I39" t="n">
-        <v>6.67</v>
+        <v>9.52</v>
       </c>
       <c r="J39" t="n">
-        <v>9909.32</v>
+        <v>11025.75</v>
       </c>
       <c r="K39" t="n">
-        <v>295</v>
+        <v>240.7</v>
       </c>
       <c r="L39" t="n">
-        <v>25.82</v>
+        <v>30.6</v>
       </c>
       <c r="M39" t="n">
-        <v>1242.9</v>
+        <v>1239.94</v>
       </c>
       <c r="N39" t="n">
-        <v>54.17</v>
+        <v>53.07</v>
       </c>
       <c r="O39" t="n">
-        <v>717.15</v>
+        <v>930.22</v>
       </c>
       <c r="P39" t="n">
-        <v>87.23</v>
+        <v>101.21</v>
       </c>
     </row>
     <row r="40">
@@ -2463,46 +2463,46 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22.12</v>
+        <v>23.93</v>
       </c>
       <c r="D40" t="n">
-        <v>451.29</v>
+        <v>420.64</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="n">
-        <v>288.57</v>
+        <v>239.68</v>
       </c>
       <c r="H40" t="n">
-        <v>241.66</v>
+        <v>241.94</v>
       </c>
       <c r="I40" t="n">
-        <v>8.73</v>
+        <v>11.04</v>
       </c>
       <c r="J40" t="n">
-        <v>14591.43</v>
+        <v>15302.51</v>
       </c>
       <c r="K40" t="n">
-        <v>342.65</v>
+        <v>290.93</v>
       </c>
       <c r="L40" t="n">
-        <v>84.48999999999999</v>
+        <v>119.17</v>
       </c>
       <c r="M40" t="n">
-        <v>4187.03</v>
+        <v>3599.03</v>
       </c>
       <c r="N40" t="n">
-        <v>240.58</v>
+        <v>239.01</v>
       </c>
       <c r="O40" t="n">
-        <v>5357.41</v>
+        <v>4380.89</v>
       </c>
       <c r="P40" t="n">
-        <v>94.84999999999999</v>
+        <v>111.88</v>
       </c>
     </row>
     <row r="41">
@@ -2517,46 +2517,46 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>47.23</v>
+        <v>42.24</v>
       </c>
       <c r="D41" t="n">
-        <v>107.8</v>
+        <v>111.37</v>
       </c>
       <c r="E41" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>43.03</v>
+        <v>47.55</v>
       </c>
       <c r="H41" t="n">
-        <v>29.45</v>
+        <v>35.73</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="J41" t="n">
-        <v>41019.4</v>
+        <v>35166.14</v>
       </c>
       <c r="K41" t="n">
-        <v>297.78</v>
+        <v>296.2</v>
       </c>
       <c r="L41" t="n">
-        <v>309.51</v>
+        <v>319.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1227.29</v>
+        <v>1786.16</v>
       </c>
       <c r="N41" t="n">
-        <v>110.69</v>
+        <v>130.58</v>
       </c>
       <c r="O41" t="n">
-        <v>2656.06</v>
+        <v>2329.44</v>
       </c>
       <c r="P41" t="n">
-        <v>94.44</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="42">
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>7.54</v>
+        <v>7.72</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2583,34 +2583,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.08</v>
+        <v>17.21</v>
       </c>
       <c r="H42" t="n">
-        <v>28.07</v>
+        <v>21.78</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>906.74</v>
+        <v>766.87</v>
       </c>
       <c r="K42" t="n">
-        <v>18.28</v>
+        <v>17.63</v>
       </c>
       <c r="L42" t="n">
-        <v>18.1</v>
+        <v>17.81</v>
       </c>
       <c r="M42" t="n">
-        <v>172.41</v>
+        <v>160.22</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>482.09</v>
+        <v>478.53</v>
       </c>
       <c r="P42" t="n">
-        <v>99.45</v>
+        <v>112.84</v>
       </c>
     </row>
     <row r="43">
@@ -2625,46 +2625,46 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.949999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="D43" t="n">
-        <v>719.3</v>
+        <v>673.08</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="n">
-        <v>898.55</v>
+        <v>733.16</v>
       </c>
       <c r="H43" t="n">
-        <v>347.32</v>
+        <v>284.85</v>
       </c>
       <c r="I43" t="n">
-        <v>4.31</v>
+        <v>3.24</v>
       </c>
       <c r="J43" t="n">
-        <v>38623.87</v>
+        <v>31321.66</v>
       </c>
       <c r="K43" t="n">
-        <v>663.6</v>
+        <v>643.04</v>
       </c>
       <c r="L43" t="n">
-        <v>235.18</v>
+        <v>190.12</v>
       </c>
       <c r="M43" t="n">
-        <v>5225.56</v>
+        <v>6067.12</v>
       </c>
       <c r="N43" t="n">
-        <v>204.82</v>
+        <v>207.18</v>
       </c>
       <c r="O43" t="n">
-        <v>3972.55</v>
+        <v>4086.22</v>
       </c>
       <c r="P43" t="n">
-        <v>93.90000000000001</v>
+        <v>89.23</v>
       </c>
     </row>
     <row r="44">
@@ -2679,46 +2679,46 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9.83</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>176.46</v>
+        <v>195.6</v>
       </c>
       <c r="E44" t="n">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="F44" t="n">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="G44" t="n">
-        <v>641.92</v>
+        <v>486.07</v>
       </c>
       <c r="H44" t="n">
-        <v>84.06999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>22.48</v>
+        <v>24.19</v>
       </c>
       <c r="J44" t="n">
-        <v>10779.09</v>
+        <v>12771.21</v>
       </c>
       <c r="K44" t="n">
-        <v>163.79</v>
+        <v>197.76</v>
       </c>
       <c r="L44" t="n">
-        <v>88.61</v>
+        <v>88.84</v>
       </c>
       <c r="M44" t="n">
-        <v>3066.1</v>
+        <v>2865.24</v>
       </c>
       <c r="N44" t="n">
-        <v>204.16</v>
+        <v>182.83</v>
       </c>
       <c r="O44" t="n">
-        <v>2063.24</v>
+        <v>2062.2</v>
       </c>
       <c r="P44" t="n">
-        <v>89.72</v>
+        <v>108.02</v>
       </c>
     </row>
     <row r="45">
@@ -2733,46 +2733,46 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16.6</v>
+        <v>16.54</v>
       </c>
       <c r="D45" t="n">
-        <v>81.70999999999999</v>
+        <v>64.95</v>
       </c>
       <c r="E45" t="n">
-        <v>0.87</v>
+        <v>1.15</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>470.44</v>
+        <v>504.89</v>
       </c>
       <c r="H45" t="n">
-        <v>50.84</v>
+        <v>43.42</v>
       </c>
       <c r="I45" t="n">
-        <v>10.39</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>14704.99</v>
+        <v>13572.95</v>
       </c>
       <c r="K45" t="n">
-        <v>91.34999999999999</v>
+        <v>97.75</v>
       </c>
       <c r="L45" t="n">
-        <v>23.4</v>
+        <v>31.62</v>
       </c>
       <c r="M45" t="n">
-        <v>2861.71</v>
+        <v>2957.28</v>
       </c>
       <c r="N45" t="n">
-        <v>115.9</v>
+        <v>87.89</v>
       </c>
       <c r="O45" t="n">
-        <v>1245.41</v>
+        <v>1045.05</v>
       </c>
       <c r="P45" t="n">
-        <v>98.01000000000001</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="46">
@@ -2787,46 +2787,46 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21.19</v>
+        <v>19.38</v>
       </c>
       <c r="D46" t="n">
-        <v>304.05</v>
+        <v>307.26</v>
       </c>
       <c r="E46" t="n">
-        <v>28.13</v>
+        <v>31.5</v>
       </c>
       <c r="F46" t="n">
-        <v>14.52</v>
+        <v>15.32</v>
       </c>
       <c r="G46" t="n">
-        <v>309.21</v>
+        <v>387.43</v>
       </c>
       <c r="H46" t="n">
-        <v>394.04</v>
+        <v>372.39</v>
       </c>
       <c r="I46" t="n">
-        <v>24.1</v>
+        <v>23.67</v>
       </c>
       <c r="J46" t="n">
-        <v>14682.73</v>
+        <v>17494.63</v>
       </c>
       <c r="K46" t="n">
-        <v>272.85</v>
+        <v>315.62</v>
       </c>
       <c r="L46" t="n">
-        <v>241.26</v>
+        <v>198.42</v>
       </c>
       <c r="M46" t="n">
-        <v>3057.63</v>
+        <v>3024.03</v>
       </c>
       <c r="N46" t="n">
-        <v>113.62</v>
+        <v>90.84</v>
       </c>
       <c r="O46" t="n">
-        <v>3020.55</v>
+        <v>3224.79</v>
       </c>
       <c r="P46" t="n">
-        <v>80.95999999999999</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="47">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.54</v>
+        <v>2.91</v>
       </c>
       <c r="D47" t="n">
-        <v>101.6</v>
+        <v>105.92</v>
       </c>
       <c r="E47" t="n">
-        <v>5.47</v>
+        <v>5.74</v>
       </c>
       <c r="F47" t="n">
-        <v>5.62</v>
+        <v>7.55</v>
       </c>
       <c r="G47" t="n">
-        <v>105.66</v>
+        <v>112.29</v>
       </c>
       <c r="H47" t="n">
-        <v>197.01</v>
+        <v>207.55</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2398.01</v>
+        <v>3232.35</v>
       </c>
       <c r="K47" t="n">
-        <v>262.02</v>
+        <v>204.09</v>
       </c>
       <c r="L47" t="n">
-        <v>32.24</v>
+        <v>33.77</v>
       </c>
       <c r="M47" t="n">
-        <v>753.11</v>
+        <v>785.27</v>
       </c>
       <c r="N47" t="n">
-        <v>21.01</v>
+        <v>23.19</v>
       </c>
       <c r="O47" t="n">
-        <v>311.7</v>
+        <v>312.31</v>
       </c>
       <c r="P47" t="n">
-        <v>105.25</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="48">
@@ -2895,46 +2895,46 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.49</v>
+        <v>4.88</v>
       </c>
       <c r="D48" t="n">
-        <v>291.61</v>
+        <v>294.26</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>2.77</v>
       </c>
       <c r="G48" t="n">
-        <v>282.81</v>
+        <v>208.82</v>
       </c>
       <c r="H48" t="n">
-        <v>196.84</v>
+        <v>211.83</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>10126.07</v>
+        <v>10522.38</v>
       </c>
       <c r="K48" t="n">
-        <v>171.03</v>
+        <v>158.48</v>
       </c>
       <c r="L48" t="n">
-        <v>73.87</v>
+        <v>56.65</v>
       </c>
       <c r="M48" t="n">
-        <v>6716.07</v>
+        <v>5305.58</v>
       </c>
       <c r="N48" t="n">
-        <v>84.08</v>
+        <v>103.76</v>
       </c>
       <c r="O48" t="n">
-        <v>1347.58</v>
+        <v>1209.67</v>
       </c>
       <c r="P48" t="n">
-        <v>96.66</v>
+        <v>94.83</v>
       </c>
     </row>
     <row r="49">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2961,34 +2961,34 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>11.66</v>
+        <v>14.93</v>
       </c>
       <c r="H49" t="n">
-        <v>9.529999999999999</v>
+        <v>10.47</v>
       </c>
       <c r="I49" t="n">
-        <v>7.22</v>
+        <v>6.97</v>
       </c>
       <c r="J49" t="n">
-        <v>1713.26</v>
+        <v>1511.24</v>
       </c>
       <c r="K49" t="n">
-        <v>38.38</v>
+        <v>33.72</v>
       </c>
       <c r="L49" t="n">
-        <v>4.11</v>
+        <v>4.45</v>
       </c>
       <c r="M49" t="n">
-        <v>2492.93</v>
+        <v>3038.55</v>
       </c>
       <c r="N49" t="n">
-        <v>17.41</v>
+        <v>15.52</v>
       </c>
       <c r="O49" t="n">
-        <v>559.4</v>
+        <v>774.11</v>
       </c>
       <c r="P49" t="n">
-        <v>117.56</v>
+        <v>86.65000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.62</v>
+        <v>4.01</v>
       </c>
       <c r="D50" t="n">
-        <v>127.2</v>
+        <v>102.71</v>
       </c>
       <c r="E50" t="n">
-        <v>12.3</v>
+        <v>12.52</v>
       </c>
       <c r="F50" t="n">
-        <v>1.18</v>
+        <v>0.9</v>
       </c>
       <c r="G50" t="n">
-        <v>432.06</v>
+        <v>487.74</v>
       </c>
       <c r="H50" t="n">
-        <v>260.42</v>
+        <v>204.95</v>
       </c>
       <c r="I50" t="n">
-        <v>18.1</v>
+        <v>22.34</v>
       </c>
       <c r="J50" t="n">
-        <v>11855.53</v>
+        <v>13564</v>
       </c>
       <c r="K50" t="n">
-        <v>261.22</v>
+        <v>254.21</v>
       </c>
       <c r="L50" t="n">
-        <v>133.16</v>
+        <v>136.45</v>
       </c>
       <c r="M50" t="n">
-        <v>2789.06</v>
+        <v>2074.38</v>
       </c>
       <c r="N50" t="n">
-        <v>115.06</v>
+        <v>85.27</v>
       </c>
       <c r="O50" t="n">
-        <v>1726.85</v>
+        <v>1531.64</v>
       </c>
       <c r="P50" t="n">
-        <v>88.73999999999999</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="51">
@@ -3057,46 +3057,46 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21.8</v>
+        <v>24.57</v>
       </c>
       <c r="D51" t="n">
-        <v>269.37</v>
+        <v>243.24</v>
       </c>
       <c r="E51" t="n">
-        <v>34.77</v>
+        <v>40.94</v>
       </c>
       <c r="F51" t="n">
-        <v>9.529999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="G51" t="n">
-        <v>902.21</v>
+        <v>839.27</v>
       </c>
       <c r="H51" t="n">
-        <v>324.26</v>
+        <v>365.89</v>
       </c>
       <c r="I51" t="n">
-        <v>23.92</v>
+        <v>22.4</v>
       </c>
       <c r="J51" t="n">
-        <v>41661.07</v>
+        <v>47137.64</v>
       </c>
       <c r="K51" t="n">
-        <v>539.45</v>
+        <v>579.2</v>
       </c>
       <c r="L51" t="n">
-        <v>436.68</v>
+        <v>589.1900000000001</v>
       </c>
       <c r="M51" t="n">
-        <v>5817.7</v>
+        <v>8208.5</v>
       </c>
       <c r="N51" t="n">
-        <v>209.9</v>
+        <v>203.34</v>
       </c>
       <c r="O51" t="n">
-        <v>10083.97</v>
+        <v>8911.790000000001</v>
       </c>
       <c r="P51" t="n">
-        <v>112.35</v>
+        <v>119.01</v>
       </c>
     </row>
     <row r="52">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.64</v>
+        <v>6.78</v>
       </c>
       <c r="D52" t="n">
-        <v>406.78</v>
+        <v>310.06</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>182.92</v>
+        <v>217.18</v>
       </c>
       <c r="H52" t="n">
-        <v>122.54</v>
+        <v>102.86</v>
       </c>
       <c r="I52" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="J52" t="n">
-        <v>4647</v>
+        <v>5644.73</v>
       </c>
       <c r="K52" t="n">
-        <v>98.8</v>
+        <v>140.52</v>
       </c>
       <c r="L52" t="n">
-        <v>39.44</v>
+        <v>33.97</v>
       </c>
       <c r="M52" t="n">
-        <v>1280.85</v>
+        <v>1056.78</v>
       </c>
       <c r="N52" t="n">
-        <v>136.93</v>
+        <v>130</v>
       </c>
       <c r="O52" t="n">
-        <v>925.4</v>
+        <v>1111.87</v>
       </c>
       <c r="P52" t="n">
-        <v>102.75</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="53">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>16.42</v>
+        <v>22.36</v>
       </c>
       <c r="H53" t="n">
-        <v>60.39</v>
+        <v>44.77</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>964.35</v>
+        <v>932.26</v>
       </c>
       <c r="K53" t="n">
-        <v>32.06</v>
+        <v>25.32</v>
       </c>
       <c r="L53" t="n">
-        <v>18.78</v>
+        <v>19.78</v>
       </c>
       <c r="M53" t="n">
-        <v>373.01</v>
+        <v>323.26</v>
       </c>
       <c r="N53" t="n">
-        <v>10.76</v>
+        <v>13.48</v>
       </c>
       <c r="O53" t="n">
-        <v>288.33</v>
+        <v>308.65</v>
       </c>
       <c r="P53" t="n">
-        <v>101.03</v>
+        <v>107.82</v>
       </c>
     </row>
     <row r="54">
@@ -3219,46 +3219,46 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20.02</v>
+        <v>19.53</v>
       </c>
       <c r="D54" t="n">
-        <v>543.59</v>
+        <v>472.79</v>
       </c>
       <c r="E54" t="n">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>515.86</v>
+        <v>463.26</v>
       </c>
       <c r="H54" t="n">
-        <v>87.34</v>
+        <v>79.78</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>25002.49</v>
+        <v>25273.08</v>
       </c>
       <c r="K54" t="n">
-        <v>124.47</v>
+        <v>120.35</v>
       </c>
       <c r="L54" t="n">
-        <v>97.36</v>
+        <v>95.27</v>
       </c>
       <c r="M54" t="n">
-        <v>4954.38</v>
+        <v>5137.49</v>
       </c>
       <c r="N54" t="n">
-        <v>96.95</v>
+        <v>101.24</v>
       </c>
       <c r="O54" t="n">
-        <v>2041.89</v>
+        <v>1744.86</v>
       </c>
       <c r="P54" t="n">
-        <v>101.55</v>
+        <v>83.59</v>
       </c>
     </row>
     <row r="55">
@@ -3273,46 +3273,46 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.93</v>
+        <v>6.39</v>
       </c>
       <c r="D55" t="n">
-        <v>782.75</v>
+        <v>700.3200000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>91.11</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>31.57</v>
+        <v>29.66</v>
       </c>
       <c r="G55" t="n">
-        <v>671.36</v>
+        <v>861.8099999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>414.05</v>
+        <v>475.12</v>
       </c>
       <c r="I55" t="n">
-        <v>24.36</v>
+        <v>24.55</v>
       </c>
       <c r="J55" t="n">
-        <v>20206.04</v>
+        <v>20033.81</v>
       </c>
       <c r="K55" t="n">
-        <v>523.98</v>
+        <v>670.8099999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>242.24</v>
+        <v>199.28</v>
       </c>
       <c r="M55" t="n">
-        <v>6969.5</v>
+        <v>5499.29</v>
       </c>
       <c r="N55" t="n">
-        <v>211.85</v>
+        <v>199.31</v>
       </c>
       <c r="O55" t="n">
-        <v>2168.24</v>
+        <v>2636.76</v>
       </c>
       <c r="P55" t="n">
-        <v>109.06</v>
+        <v>92.26000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>33.86</v>
+        <v>28.2</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3339,34 +3339,34 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>42.62</v>
+        <v>35.98</v>
       </c>
       <c r="H56" t="n">
-        <v>5.47</v>
+        <v>6.8</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>7165.26</v>
+        <v>6934.29</v>
       </c>
       <c r="K56" t="n">
-        <v>69.3</v>
+        <v>55.72</v>
       </c>
       <c r="L56" t="n">
-        <v>54.73</v>
+        <v>55.2</v>
       </c>
       <c r="M56" t="n">
-        <v>1585.56</v>
+        <v>1238.27</v>
       </c>
       <c r="N56" t="n">
-        <v>60.37</v>
+        <v>47.53</v>
       </c>
       <c r="O56" t="n">
-        <v>625.34</v>
+        <v>801.37</v>
       </c>
       <c r="P56" t="n">
-        <v>92.41</v>
+        <v>104.46</v>
       </c>
     </row>
     <row r="57">
@@ -3381,46 +3381,46 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.55</v>
+        <v>12.47</v>
       </c>
       <c r="D57" t="n">
-        <v>378.19</v>
+        <v>280.73</v>
       </c>
       <c r="E57" t="n">
-        <v>5.73</v>
+        <v>7.07</v>
       </c>
       <c r="F57" t="n">
-        <v>5.91</v>
+        <v>5.75</v>
       </c>
       <c r="G57" t="n">
-        <v>278.55</v>
+        <v>300.29</v>
       </c>
       <c r="H57" t="n">
-        <v>198.1</v>
+        <v>214.82</v>
       </c>
       <c r="I57" t="n">
-        <v>29.8</v>
+        <v>32.02</v>
       </c>
       <c r="J57" t="n">
-        <v>30137.11</v>
+        <v>38959.27</v>
       </c>
       <c r="K57" t="n">
-        <v>424.06</v>
+        <v>328.41</v>
       </c>
       <c r="L57" t="n">
-        <v>122.78</v>
+        <v>101.22</v>
       </c>
       <c r="M57" t="n">
-        <v>9899.389999999999</v>
+        <v>8766.92</v>
       </c>
       <c r="N57" t="n">
-        <v>171.58</v>
+        <v>158.77</v>
       </c>
       <c r="O57" t="n">
-        <v>2076.07</v>
+        <v>2652.91</v>
       </c>
       <c r="P57" t="n">
-        <v>110.12</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="58">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>28.29</v>
+        <v>25.27</v>
       </c>
       <c r="H58" t="n">
-        <v>5.3</v>
+        <v>5.67</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3478.73</v>
+        <v>2831</v>
       </c>
       <c r="K58" t="n">
-        <v>14.64</v>
+        <v>13.02</v>
       </c>
       <c r="L58" t="n">
-        <v>7.83</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>412.52</v>
+        <v>470.71</v>
       </c>
       <c r="N58" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="O58" t="n">
-        <v>295.65</v>
+        <v>360.45</v>
       </c>
       <c r="P58" t="n">
-        <v>114.57</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="59">
@@ -3489,46 +3489,46 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="D59" t="n">
-        <v>9.539999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="E59" t="n">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>20.68</v>
+        <v>16.77</v>
       </c>
       <c r="H59" t="n">
-        <v>4.41</v>
+        <v>3.23</v>
       </c>
       <c r="I59" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="J59" t="n">
-        <v>234.78</v>
+        <v>262.81</v>
       </c>
       <c r="K59" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="L59" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>70.03</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="N59" t="n">
-        <v>12.82</v>
+        <v>10.23</v>
       </c>
       <c r="O59" t="n">
-        <v>1299.68</v>
+        <v>936.0700000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>111.41</v>
+        <v>115.63</v>
       </c>
     </row>
     <row r="60">
